--- a/data-raw/NEFMC_abc_acl.xlsx
+++ b/data-raw/NEFMC_abc_acl.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="54">
   <si>
     <t>Time</t>
   </si>
@@ -176,6 +175,18 @@
   </si>
   <si>
     <t>Groundfish Wolffish</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>Quota_Category</t>
   </si>
 </sst>
 </file>
@@ -397,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -443,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,13 +749,13 @@
     <col min="1" max="1" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="5" width="10.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -755,13 +769,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2017</v>
       </c>
@@ -775,13 +792,16 @@
         <v>49503</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2018</v>
       </c>
@@ -795,11 +815,14 @@
         <v>43395.5</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2019</v>
       </c>
@@ -813,11 +836,14 @@
         <v>12712.1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2020</v>
       </c>
@@ -831,11 +857,14 @@
         <v>9347.4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2021</v>
       </c>
@@ -849,11 +878,14 @@
         <v>5267.3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2022</v>
       </c>
@@ -867,13 +899,16 @@
         <v>2687.7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2022</v>
       </c>
@@ -887,13 +922,16 @@
         <v>2.6</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2022</v>
       </c>
@@ -907,11 +945,14 @@
         <v>38.700000000000003</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2022</v>
       </c>
@@ -925,11 +966,14 @@
         <v>26.8</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2022</v>
       </c>
@@ -943,11 +987,14 @@
         <v>10.6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2022</v>
       </c>
@@ -961,11 +1008,14 @@
         <v>1339.2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2022</v>
       </c>
@@ -979,11 +1029,14 @@
         <v>660.9</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -997,11 +1050,14 @@
         <v>0.2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -1015,11 +1071,14 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2022</v>
       </c>
@@ -1033,11 +1092,14 @@
         <v>105.4</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2022</v>
       </c>
@@ -1051,11 +1113,14 @@
         <v>290.2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2022</v>
       </c>
@@ -1069,11 +1134,14 @@
         <v>246.5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2022</v>
       </c>
@@ -1087,11 +1155,14 @@
         <v>122.2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2022</v>
       </c>
@@ -1105,11 +1176,14 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2022</v>
       </c>
@@ -1123,11 +1197,14 @@
         <v>55.4</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2022</v>
       </c>
@@ -1141,11 +1218,14 @@
         <v>2213.5</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2022</v>
       </c>
@@ -1159,11 +1239,14 @@
         <v>575.9</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2022</v>
       </c>
@@ -1177,11 +1260,14 @@
         <v>1221.4000000000001</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2022</v>
       </c>
@@ -1195,11 +1281,14 @@
         <v>1.4</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>2022</v>
       </c>
@@ -1213,11 +1302,14 @@
         <v>5</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>2022</v>
       </c>
@@ -1231,11 +1323,14 @@
         <v>29.6</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>2022</v>
       </c>
@@ -1249,11 +1344,14 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2022</v>
       </c>
@@ -1267,11 +1365,14 @@
         <v>1</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>2021</v>
       </c>
@@ -1285,13 +1386,16 @@
         <v>56.4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>2021</v>
       </c>
@@ -1305,11 +1409,14 @@
         <v>470.8</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>2021</v>
       </c>
@@ -1323,11 +1430,14 @@
         <v>235</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>2021</v>
       </c>
@@ -1341,11 +1451,14 @@
         <v>442.7</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>2021</v>
       </c>
@@ -1359,11 +1472,14 @@
         <v>3116.5</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>2021</v>
       </c>
@@ -1377,15 +1493,18 @@
         <v>3450.8</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="H35" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="I35" s="11" t="str">
         <f xml:space="preserve"> "Groundfish "&amp;B34</f>
         <v>Groundfish Groundfish GB Haddock</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>2021</v>
       </c>
@@ -1399,15 +1518,18 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="H36" s="11" t="str">
-        <f t="shared" ref="H36:H62" si="0" xml:space="preserve"> "Groundfish "&amp;B35</f>
+        <v>50</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="I36" s="11" t="str">
+        <f t="shared" ref="I36:I62" si="0" xml:space="preserve"> "Groundfish "&amp;B35</f>
         <v>Groundfish Groundfish GOM Haddock</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>2021</v>
       </c>
@@ -1421,15 +1543,18 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="H37" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="I37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>2021</v>
       </c>
@@ -1443,15 +1568,18 @@
         <v>303.39999999999998</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="H38" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="I38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish SNE/MA Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>2021</v>
       </c>
@@ -1465,15 +1593,18 @@
         <v>692.2</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="H39" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="I39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish CC/GOM Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>2021</v>
       </c>
@@ -1487,15 +1618,18 @@
         <v>863.8</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="H40" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="I40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Plaice</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>2021</v>
       </c>
@@ -1509,15 +1643,18 @@
         <v>261.89999999999998</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="H41" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="I41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Witch Flounder</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>2021</v>
       </c>
@@ -1531,15 +1668,18 @@
         <v>78.400000000000006</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="H42" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="I42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Winter Flounder</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>2021</v>
       </c>
@@ -1553,15 +1693,18 @@
         <v>69.099999999999994</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="H43" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="I43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GOM Winter Flounder</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>2021</v>
       </c>
@@ -1575,15 +1718,18 @@
         <v>4353</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="H44" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="I44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish SNE Winter Flounder</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>2021</v>
       </c>
@@ -1597,15 +1743,18 @@
         <v>1930.1</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="H45" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="I45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Redfish</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>2021</v>
       </c>
@@ -1619,15 +1768,18 @@
         <v>3069.8</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="H46" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="I46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish White Hake</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>2021</v>
       </c>
@@ -1641,15 +1793,18 @@
         <v>10.4</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="H47" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="I47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Pollock</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>2021</v>
       </c>
@@ -1663,15 +1818,18 @@
         <v>12.5</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="H48" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="I48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Northern Windowpane</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>2021</v>
       </c>
@@ -1685,15 +1843,18 @@
         <v>24.6</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="H49" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="I49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Southern Windowpane</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>2021</v>
       </c>
@@ -1707,15 +1868,18 @@
         <v>42.5</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="H50" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="I50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Ocean Pout</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>2021</v>
       </c>
@@ -1729,15 +1893,18 @@
         <v>1.7</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="H51" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="I51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Halibut</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>2020</v>
       </c>
@@ -1751,15 +1918,18 @@
         <v>57</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="H52" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="I52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Wolffish</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>2020</v>
       </c>
@@ -1773,15 +1943,18 @@
         <v>425.3</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="H53" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="I53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Cod East</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>2020</v>
       </c>
@@ -1795,15 +1968,18 @@
         <v>225</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="H54" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="I54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Cod</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>2020</v>
       </c>
@@ -1817,15 +1993,18 @@
         <v>562.79999999999995</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="H55" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="I55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GOM Cod</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>2020</v>
       </c>
@@ -1839,15 +2018,18 @@
         <v>6489.4</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="H56" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="I56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Haddock East</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>2020</v>
       </c>
@@ -1861,15 +2043,18 @@
         <v>4060.1</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="H57" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="I57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Haddock</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>2020</v>
       </c>
@@ -1883,15 +2068,18 @@
         <v>6.4</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="H58" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="I58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GOM Haddock</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>2020</v>
       </c>
@@ -1905,15 +2093,18 @@
         <v>1</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="H59" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="I59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish GB Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>2020</v>
       </c>
@@ -1927,15 +2118,18 @@
         <v>188.9</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="H60" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="I60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish SNE/MA Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>2020</v>
       </c>
@@ -1949,15 +2143,18 @@
         <v>600.4</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="H61" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="I61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish CC/GOM Yellowtail Flounder</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>2020</v>
       </c>
@@ -1971,15 +2168,18 @@
         <v>894.2</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="H62" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="I62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Groundfish Groundfish Plaice</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>2020</v>
       </c>
@@ -1993,11 +2193,14 @@
         <v>289.89999999999998</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>2020</v>
       </c>
@@ -2011,11 +2214,14 @@
         <v>59.6</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>2020</v>
       </c>
@@ -2029,11 +2235,14 @@
         <v>103.2</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>2020</v>
       </c>
@@ -2047,11 +2256,14 @@
         <v>6712.1</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>2020</v>
       </c>
@@ -2065,11 +2277,14 @@
         <v>1820.6</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>2020</v>
       </c>
@@ -2083,11 +2298,14 @@
         <v>3937.2</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>2020</v>
       </c>
@@ -2101,11 +2319,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>2020</v>
       </c>
@@ -2119,11 +2340,14 @@
         <v>24.6</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>2020</v>
       </c>
@@ -2137,11 +2361,14 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>2020</v>
       </c>
@@ -2155,11 +2382,14 @@
         <v>51.9</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>2020</v>
       </c>
@@ -2173,11 +2403,14 @@
         <v>1</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>2019</v>
       </c>
@@ -2191,13 +2424,16 @@
         <v>65.8</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>2019</v>
       </c>
@@ -2211,11 +2447,14 @@
         <v>532.4</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>2019</v>
       </c>
@@ -2229,11 +2468,14 @@
         <v>286.60000000000002</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>2019</v>
       </c>
@@ -2247,11 +2489,14 @@
         <v>715.6</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>2019</v>
       </c>
@@ -2265,11 +2510,14 @@
         <v>5294.1</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>2019</v>
       </c>
@@ -2283,11 +2531,14 @@
         <v>3557.6</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>2019</v>
       </c>
@@ -2301,11 +2552,14 @@
         <v>3.1</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>2019</v>
       </c>
@@ -2319,11 +2573,14 @@
         <v>2.8</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>2019</v>
       </c>
@@ -2337,11 +2594,14 @@
         <v>146.19999999999999</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>2019</v>
       </c>
@@ -2355,11 +2615,14 @@
         <v>840.6</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>2019</v>
       </c>
@@ -2373,11 +2636,14 @@
         <v>764</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>2019</v>
       </c>
@@ -2391,11 +2657,14 @@
         <v>306.2</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>2019</v>
       </c>
@@ -2409,11 +2678,14 @@
         <v>58.7</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>2019</v>
       </c>
@@ -2427,11 +2699,14 @@
         <v>143.80000000000001</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>2019</v>
       </c>
@@ -2445,11 +2720,14 @@
         <v>4957.3</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>2019</v>
       </c>
@@ -2463,11 +2741,14 @@
         <v>2064.1999999999998</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>2019</v>
       </c>
@@ -2481,11 +2762,14 @@
         <v>3085.6</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>2019</v>
       </c>
@@ -2499,11 +2783,14 @@
         <v>21.8</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>2019</v>
       </c>
@@ -2517,11 +2804,14 @@
         <v>32.700000000000003</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>2019</v>
       </c>
@@ -2535,11 +2825,14 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>2019</v>
       </c>
@@ -2553,11 +2846,14 @@
         <v>79.8</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>2019</v>
       </c>
@@ -2571,11 +2867,14 @@
         <v>2.4</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>2018</v>
       </c>
@@ -2589,13 +2888,16 @@
         <v>106.4</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F96" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>2018</v>
       </c>
@@ -2609,11 +2911,14 @@
         <v>837.9</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>2018</v>
       </c>
@@ -2627,11 +2932,14 @@
         <v>315</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>2018</v>
       </c>
@@ -2645,11 +2953,14 @@
         <v>623.1</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>2018</v>
       </c>
@@ -2663,11 +2974,14 @@
         <v>5143.7</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>2018</v>
       </c>
@@ -2681,11 +2995,14 @@
         <v>2870.1</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>2018</v>
       </c>
@@ -2699,11 +3016,14 @@
         <v>27.6</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>2018</v>
       </c>
@@ -2717,11 +3037,14 @@
         <v>8.5</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>2018</v>
       </c>
@@ -2735,11 +3058,14 @@
         <v>170.3</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="12"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>2018</v>
       </c>
@@ -2753,11 +3079,14 @@
         <v>1078.4000000000001</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>2018</v>
       </c>
@@ -2771,11 +3100,14 @@
         <v>811.8</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>2018</v>
       </c>
@@ -2789,11 +3121,14 @@
         <v>419.9</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>2018</v>
       </c>
@@ -2807,11 +3142,14 @@
         <v>91.7</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>2018</v>
       </c>
@@ -2825,11 +3163,14 @@
         <v>250.7</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>2018</v>
       </c>
@@ -2843,11 +3184,14 @@
         <v>5362.1</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>2018</v>
       </c>
@@ -2861,11 +3205,14 @@
         <v>2097.1</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>2018</v>
       </c>
@@ -2879,11 +3226,14 @@
         <v>3480.8</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>2018</v>
       </c>
@@ -2897,11 +3247,14 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>2018</v>
       </c>
@@ -2915,11 +3268,14 @@
         <v>66.5</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>2018</v>
       </c>
@@ -2933,11 +3289,14 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>2018</v>
       </c>
@@ -2951,11 +3310,14 @@
         <v>70.8</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="12"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>2018</v>
       </c>
@@ -2969,11 +3331,14 @@
         <v>1.5</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>2017</v>
       </c>
@@ -2987,11 +3352,14 @@
         <v>43.7</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="12"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>2017</v>
       </c>
@@ -3005,11 +3373,14 @@
         <v>446</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="12"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>2017</v>
       </c>
@@ -3023,11 +3394,14 @@
         <v>268.89999999999998</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>2017</v>
       </c>
@@ -3041,11 +3415,14 @@
         <v>407.3</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>2017</v>
       </c>
@@ -3059,11 +3436,14 @@
         <v>4090.5</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>2017</v>
       </c>
@@ -3077,11 +3457,14 @@
         <v>2265</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>2017</v>
       </c>
@@ -3095,11 +3478,14 @@
         <v>31</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>2017</v>
       </c>
@@ -3113,11 +3499,14 @@
         <v>14.5</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>2017</v>
       </c>
@@ -3131,11 +3520,14 @@
         <v>205.7</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="12"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>2017</v>
       </c>
@@ -3149,11 +3541,14 @@
         <v>1078.3</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>2017</v>
       </c>
@@ -3167,11 +3562,14 @@
         <v>494.7</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>2017</v>
       </c>
@@ -3185,11 +3583,14 @@
         <v>377.6</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>2017</v>
       </c>
@@ -3203,11 +3604,14 @@
         <v>113.8</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="12"/>
-    </row>
-    <row r="131" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>2017</v>
       </c>
@@ -3221,11 +3625,14 @@
         <v>409.3</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="12"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>2017</v>
       </c>
@@ -3239,11 +3646,14 @@
         <v>4647.5</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="12"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>2017</v>
       </c>
@@ -3257,11 +3667,14 @@
         <v>2023.4</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>2017</v>
       </c>
@@ -3275,11 +3688,14 @@
         <v>3008.5</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" s="12"/>
-    </row>
-    <row r="135" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>2017</v>
       </c>
@@ -3293,11 +3709,14 @@
         <v>35.1</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>2017</v>
       </c>
@@ -3311,11 +3730,14 @@
         <v>71.5</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>2017</v>
       </c>
@@ -3329,11 +3751,14 @@
         <v>11.1</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="12"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>2017</v>
       </c>
@@ -3347,11 +3772,14 @@
         <v>68.3</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="12"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>2017</v>
       </c>
@@ -3365,11 +3793,14 @@
         <v>1.6</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="12"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>2016</v>
       </c>
@@ -3383,13 +3814,16 @@
         <v>82</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F140" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>2016</v>
       </c>
@@ -3403,11 +3837,14 @@
         <v>596.6</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" s="12"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>2016</v>
       </c>
@@ -3421,11 +3858,14 @@
         <v>266.5</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" s="12"/>
-    </row>
-    <row r="143" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>2016</v>
       </c>
@@ -3439,11 +3879,14 @@
         <v>549</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" s="12"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>2016</v>
       </c>
@@ -3457,11 +3900,14 @@
         <v>4391.3</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" s="12"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>2016</v>
       </c>
@@ -3475,11 +3921,14 @@
         <v>1586.5</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="12"/>
-    </row>
-    <row r="146" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>2016</v>
       </c>
@@ -3493,11 +3942,14 @@
         <v>23.9</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="12"/>
-    </row>
-    <row r="147" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>2016</v>
       </c>
@@ -3511,11 +3963,14 @@
         <v>62.5</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="12"/>
-    </row>
-    <row r="148" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>2016</v>
       </c>
@@ -3529,11 +3984,14 @@
         <v>261</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" s="12"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>2016</v>
       </c>
@@ -3547,11 +4005,14 @@
         <v>1139.3</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>2016</v>
       </c>
@@ -3565,11 +4026,14 @@
         <v>358.8</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="12"/>
-    </row>
-    <row r="151" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>2016</v>
       </c>
@@ -3583,11 +4047,14 @@
         <v>422.6</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>2016</v>
       </c>
@@ -3601,11 +4068,14 @@
         <v>111.9</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="153" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>2016</v>
       </c>
@@ -3619,11 +4089,14 @@
         <v>453.3</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="12"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>2016</v>
       </c>
@@ -3637,11 +4110,14 @@
         <v>4078.1</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="12"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>2016</v>
       </c>
@@ -3655,11 +4131,14 @@
         <v>1472.2</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" s="12"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>2016</v>
       </c>
@@ -3673,11 +4152,14 @@
         <v>2985.1</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="12"/>
-    </row>
-    <row r="157" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>2016</v>
       </c>
@@ -3691,11 +4173,14 @@
         <v>45</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="12"/>
-    </row>
-    <row r="158" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>2016</v>
       </c>
@@ -3709,11 +4194,14 @@
         <v>126.7</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="12"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>2016</v>
       </c>
@@ -3727,11 +4215,14 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="12"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>2016</v>
       </c>
@@ -3745,11 +4236,14 @@
         <v>56.9</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" s="12"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>2016</v>
       </c>
@@ -3763,11 +4257,14 @@
         <v>0.6</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" s="12"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>2015</v>
       </c>
@@ -3781,13 +4278,16 @@
         <v>82</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F162" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>2015</v>
       </c>
@@ -3801,11 +4301,14 @@
         <v>1636.8</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="12"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>2015</v>
       </c>
@@ -3819,11 +4322,14 @@
         <v>186.4</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="12"/>
-    </row>
-    <row r="165" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>2015</v>
       </c>
@@ -3837,11 +4343,14 @@
         <v>1057.9000000000001</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>2015</v>
       </c>
@@ -3855,11 +4364,14 @@
         <v>5074.7</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="12"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>2015</v>
       </c>
@@ -3873,11 +4385,14 @@
         <v>729.3</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" s="12"/>
-    </row>
-    <row r="168" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>2015</v>
       </c>
@@ -3891,11 +4406,14 @@
         <v>38.4</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>2015</v>
       </c>
@@ -3909,11 +4427,14 @@
         <v>283.5</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" s="12"/>
-    </row>
-    <row r="170" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>2015</v>
       </c>
@@ -3927,11 +4448,14 @@
         <v>385.1</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F170" s="12"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>2015</v>
       </c>
@@ -3945,11 +4469,14 @@
         <v>1379.9</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>2015</v>
       </c>
@@ -3963,11 +4490,14 @@
         <v>536.9</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="12"/>
-    </row>
-    <row r="173" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>2015</v>
       </c>
@@ -3981,11 +4511,14 @@
         <v>868.8</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>2015</v>
       </c>
@@ -3999,11 +4532,14 @@
         <v>121</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F174" s="12"/>
-    </row>
-    <row r="175" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>2015</v>
       </c>
@@ -4017,11 +4553,14 @@
         <v>688</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" s="12"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>2015</v>
       </c>
@@ -4035,11 +4574,14 @@
         <v>5284.6</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F176" s="12"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>2015</v>
       </c>
@@ -4053,11 +4595,14 @@
         <v>1599.1</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F177" s="12"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>2015</v>
       </c>
@@ -4071,11 +4616,14 @@
         <v>2923.9</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" s="12"/>
-    </row>
-    <row r="179" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>2015</v>
       </c>
@@ -4089,11 +4637,14 @@
         <v>73.599999999999994</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>2015</v>
       </c>
@@ -4107,11 +4658,14 @@
         <v>137.6</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" s="12"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>2015</v>
       </c>
@@ -4125,11 +4679,14 @@
         <v>52.3</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" s="12"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>2015</v>
       </c>
@@ -4143,11 +4700,14 @@
         <v>59</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="12"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>2015</v>
       </c>
@@ -4161,11 +4721,14 @@
         <v>18.7</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="12"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>2014</v>
       </c>
@@ -4179,13 +4742,16 @@
         <v>72.8</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F184" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>2014</v>
       </c>
@@ -4199,11 +4765,14 @@
         <v>1386.3</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>2014</v>
       </c>
@@ -4217,11 +4786,14 @@
         <v>663.2</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>2014</v>
       </c>
@@ -4235,11 +4807,14 @@
         <v>1536.3</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F187" s="12"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>2014</v>
       </c>
@@ -4253,11 +4828,14 @@
         <v>5449.1</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F188" s="12"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>2014</v>
       </c>
@@ -4271,11 +4849,14 @@
         <v>324.7</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" s="12"/>
-    </row>
-    <row r="190" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>2014</v>
       </c>
@@ -4289,11 +4870,14 @@
         <v>62.5</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F190" s="12"/>
-    </row>
-    <row r="191" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>2014</v>
       </c>
@@ -4307,11 +4891,14 @@
         <v>400.4</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F191" s="12"/>
-    </row>
-    <row r="192" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>2014</v>
       </c>
@@ -4325,11 +4912,14 @@
         <v>250.5</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F192" s="12"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>2014</v>
       </c>
@@ -4343,11 +4933,14 @@
         <v>1300.9000000000001</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F193" s="12"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>2014</v>
       </c>
@@ -4361,11 +4954,14 @@
         <v>515.4</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F194" s="12"/>
-    </row>
-    <row r="195" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>2014</v>
       </c>
@@ -4379,11 +4975,14 @@
         <v>1149.3</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F195" s="12"/>
-    </row>
-    <row r="196" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>2014</v>
       </c>
@@ -4397,11 +4996,14 @@
         <v>124.3</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F196" s="12"/>
-    </row>
-    <row r="197" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>2014</v>
       </c>
@@ -4415,11 +5017,14 @@
         <v>545.79999999999995</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F197" s="12"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>2014</v>
       </c>
@@ -4433,11 +5038,14 @@
         <v>4686.8999999999996</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F198" s="12"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>2014</v>
       </c>
@@ -4451,11 +5059,14 @@
         <v>1748.7</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F199" s="12"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>2014</v>
       </c>
@@ -4469,11 +5080,14 @@
         <v>4016.4</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" s="12"/>
-    </row>
-    <row r="201" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>2014</v>
       </c>
@@ -4487,11 +5101,14 @@
         <v>157.69999999999999</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F201" s="12"/>
-    </row>
-    <row r="202" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>2014</v>
       </c>
@@ -4505,11 +5122,14 @@
         <v>96.3</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F202" s="12"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>2014</v>
       </c>
@@ -4523,11 +5143,14 @@
         <v>33.1</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F203" s="12"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>2014</v>
       </c>
@@ -4541,11 +5164,14 @@
         <v>47.8</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F204" s="12"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>2014</v>
       </c>
@@ -4559,11 +5185,14 @@
         <v>14.3</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F205" s="12"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>2013</v>
       </c>
@@ -4577,11 +5206,14 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F206" s="12"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>2013</v>
       </c>
@@ -4595,11 +5227,14 @@
         <v>1572.9</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F207" s="12"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>2013</v>
       </c>
@@ -4613,11 +5248,14 @@
         <v>740.8</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F208" s="12"/>
-    </row>
-    <row r="209" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>2013</v>
       </c>
@@ -4631,11 +5269,14 @@
         <v>578.79999999999995</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F209" s="12"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>2013</v>
       </c>
@@ -4649,11 +5290,14 @@
         <v>2977.5</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F210" s="12"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>2013</v>
       </c>
@@ -4667,11 +5311,14 @@
         <v>171.3</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F211" s="12"/>
-    </row>
-    <row r="212" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>2013</v>
       </c>
@@ -4685,11 +5332,14 @@
         <v>55.8</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F212" s="12"/>
-    </row>
-    <row r="213" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>2013</v>
       </c>
@@ -4703,11 +5353,14 @@
         <v>373.3</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F213" s="12"/>
-    </row>
-    <row r="214" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>2013</v>
       </c>
@@ -4721,11 +5374,14 @@
         <v>380.5</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F214" s="12"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>2013</v>
       </c>
@@ -4739,11 +5395,14 @@
         <v>1395.2</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F215" s="12"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>2013</v>
       </c>
@@ -4757,11 +5416,14 @@
         <v>642.29999999999995</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F216" s="12"/>
-    </row>
-    <row r="217" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>2013</v>
       </c>
@@ -4775,11 +5437,14 @@
         <v>1722</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" s="12"/>
-    </row>
-    <row r="218" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>2013</v>
       </c>
@@ -4793,11 +5458,14 @@
         <v>169.3</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F218" s="12"/>
-    </row>
-    <row r="219" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>2013</v>
       </c>
@@ -4811,11 +5479,14 @@
         <v>788.6</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F219" s="12"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>2013</v>
       </c>
@@ -4829,11 +5500,14 @@
         <v>4000.6</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F220" s="12"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>2013</v>
       </c>
@@ -4847,11 +5521,14 @@
         <v>2045.6</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F221" s="12"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>2013</v>
       </c>
@@ -4865,11 +5542,14 @@
         <v>4915</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F222" s="12"/>
-    </row>
-    <row r="223" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>2013</v>
       </c>
@@ -4883,11 +5563,14 @@
         <v>237.5</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" s="12"/>
-    </row>
-    <row r="224" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>2013</v>
       </c>
@@ -4901,11 +5584,14 @@
         <v>115.9</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>2013</v>
       </c>
@@ -4919,11 +5605,14 @@
         <v>33.200000000000003</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F225" s="12"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G225" s="12"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>2013</v>
       </c>
@@ -4937,11 +5626,14 @@
         <v>54.7</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F226" s="12"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G226" s="12"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>2013</v>
       </c>
@@ -4955,11 +5647,14 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F227" s="12"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="12"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>2022</v>
       </c>
@@ -4972,12 +5667,15 @@
       <c r="D228" s="13">
         <v>1339.7</v>
       </c>
-      <c r="E228" s="12" t="s">
+      <c r="E228" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F228" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F228" s="12"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="12"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>2021</v>
       </c>
@@ -4990,12 +5688,15 @@
       <c r="D229" s="13">
         <v>3165.7</v>
       </c>
-      <c r="E229" s="12" t="s">
+      <c r="E229" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F229" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F229" s="12"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>2020</v>
       </c>
@@ -5008,12 +5709,15 @@
       <c r="D230" s="13">
         <v>4513.3999999999996</v>
       </c>
-      <c r="E230" s="12" t="s">
+      <c r="E230" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F230" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F230" s="12"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>2019</v>
       </c>
@@ -5026,12 +5730,15 @@
       <c r="D231" s="13">
         <v>5082.8999999999996</v>
       </c>
-      <c r="E231" s="12" t="s">
+      <c r="E231" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F231" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F231" s="12"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>2022</v>
       </c>
@@ -5044,12 +5751,15 @@
       <c r="D232" s="13">
         <v>1082.5999999999999</v>
       </c>
-      <c r="E232" s="12" t="s">
+      <c r="E232" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F232" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F232" s="12"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>2021</v>
       </c>
@@ -5062,12 +5772,15 @@
       <c r="D233" s="13">
         <v>1383.5</v>
       </c>
-      <c r="E233" s="12" t="s">
+      <c r="E233" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F233" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F233" s="12"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>2020</v>
       </c>
@@ -5080,12 +5793,15 @@
       <c r="D234" s="13">
         <v>1481.7</v>
       </c>
-      <c r="E234" s="12" t="s">
+      <c r="E234" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F234" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F234" s="12"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>2019</v>
       </c>
@@ -5098,12 +5814,15 @@
       <c r="D235" s="13">
         <v>1763.7</v>
       </c>
-      <c r="E235" s="12" t="s">
+      <c r="E235" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F235" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F235" s="12"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>2022</v>
       </c>
@@ -5116,14 +5835,17 @@
       <c r="D236" s="13">
         <v>43.1</v>
       </c>
-      <c r="E236" s="12" t="s">
+      <c r="E236" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F236" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F236" s="12" t="s">
+      <c r="G236" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>2022</v>
       </c>
@@ -5136,12 +5858,15 @@
       <c r="D237" s="13">
         <v>51.4</v>
       </c>
-      <c r="E237" s="12" t="s">
+      <c r="E237" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F237" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F237" s="12"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>2022</v>
       </c>
@@ -5154,12 +5879,15 @@
       <c r="D238" s="13">
         <v>1194.4000000000001</v>
       </c>
-      <c r="E238" s="12" t="s">
+      <c r="E238" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F238" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F238" s="12"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>2022</v>
       </c>
@@ -5172,12 +5900,15 @@
       <c r="D239" s="13">
         <v>742.4</v>
       </c>
-      <c r="E239" s="12" t="s">
+      <c r="E239" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F239" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F239" s="12"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>2021</v>
       </c>
@@ -5190,12 +5921,15 @@
       <c r="D240" s="12">
         <v>47.6</v>
       </c>
-      <c r="E240" s="12" t="s">
+      <c r="E240" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F240" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F240" s="12"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>2021</v>
       </c>
@@ -5208,12 +5942,15 @@
       <c r="D241" s="12">
         <v>180.2</v>
       </c>
-      <c r="E241" s="12" t="s">
+      <c r="E241" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F241" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F241" s="12"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>2021</v>
       </c>
@@ -5226,12 +5963,15 @@
       <c r="D242" s="12">
         <v>2031.9</v>
       </c>
-      <c r="E242" s="12" t="s">
+      <c r="E242" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F242" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F242" s="12"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>2021</v>
       </c>
@@ -5244,12 +5984,15 @@
       <c r="D243" s="12">
         <v>2089.5</v>
       </c>
-      <c r="E243" s="12" t="s">
+      <c r="E243" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F243" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F243" s="12"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>2020</v>
       </c>
@@ -5262,12 +6005,15 @@
       <c r="D244" s="12">
         <v>51</v>
       </c>
-      <c r="E244" s="12" t="s">
+      <c r="E244" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F244" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F244" s="12"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>2020</v>
       </c>
@@ -5280,12 +6026,15 @@
       <c r="D245" s="12">
         <v>264.2</v>
       </c>
-      <c r="E245" s="12" t="s">
+      <c r="E245" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F245" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F245" s="12"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>2020</v>
       </c>
@@ -5298,12 +6047,15 @@
       <c r="D246" s="12">
         <v>1268</v>
       </c>
-      <c r="E246" s="12" t="s">
+      <c r="E246" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F246" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F246" s="12"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>2020</v>
       </c>
@@ -5316,12 +6068,15 @@
       <c r="D247" s="12">
         <v>3761.7</v>
       </c>
-      <c r="E247" s="12" t="s">
+      <c r="E247" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F247" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F247" s="12"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>2019</v>
       </c>
@@ -5334,12 +6089,15 @@
       <c r="D248" s="12">
         <v>126.1</v>
       </c>
-      <c r="E248" s="12" t="s">
+      <c r="E248" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F248" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F248" s="12"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>2019</v>
       </c>
@@ -5352,12 +6110,15 @@
       <c r="D249" s="12">
         <v>301.7</v>
       </c>
-      <c r="E249" s="12" t="s">
+      <c r="E249" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F249" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F249" s="12"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>2019</v>
       </c>
@@ -5370,12 +6131,15 @@
       <c r="D250" s="12">
         <v>1208.8</v>
       </c>
-      <c r="E250" s="12" t="s">
+      <c r="E250" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F250" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F250" s="12"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>2019</v>
       </c>
@@ -5388,12 +6152,15 @@
       <c r="D251" s="12">
         <v>3762.8</v>
       </c>
-      <c r="E251" s="12" t="s">
+      <c r="E251" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F251" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F251" s="12"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>2022</v>
       </c>
@@ -5406,12 +6173,15 @@
       <c r="D252" s="12">
         <v>2947</v>
       </c>
-      <c r="E252" s="12" t="s">
+      <c r="E252" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F252" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F252" s="12"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>2021</v>
       </c>
@@ -5424,12 +6194,15 @@
       <c r="D253" s="12">
         <v>4793</v>
       </c>
-      <c r="E253" s="12" t="s">
+      <c r="E253" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F253" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F253" s="12"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>2020</v>
       </c>
@@ -5442,12 +6215,15 @@
       <c r="D254" s="12">
         <v>9158</v>
       </c>
-      <c r="E254" s="12" t="s">
+      <c r="E254" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F254" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F254" s="12"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>2019</v>
       </c>
@@ -5460,12 +6236,15 @@
       <c r="D255" s="12">
         <v>8494.7999999999993</v>
       </c>
-      <c r="E255" s="12" t="s">
+      <c r="E255" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F255" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F255" s="12"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>2018</v>
       </c>
@@ -5478,12 +6257,15 @@
       <c r="D256" s="12">
         <v>9223.5</v>
       </c>
-      <c r="E256" s="12" t="s">
+      <c r="E256" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F256" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F256" s="12"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>2017</v>
       </c>
@@ -5496,12 +6278,15 @@
       <c r="D257" s="12">
         <v>8426.4</v>
       </c>
-      <c r="E257" s="12" t="s">
+      <c r="E257" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F257" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F257" s="12"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>2016</v>
       </c>
@@ -5514,12 +6299,15 @@
       <c r="D258" s="12">
         <v>8190.7</v>
       </c>
-      <c r="E258" s="12" t="s">
+      <c r="E258" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F258" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F258" s="12"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>2015</v>
       </c>
@@ -5532,12 +6320,15 @@
       <c r="D259" s="12">
         <v>8647.9</v>
       </c>
-      <c r="E259" s="12" t="s">
+      <c r="E259" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F259" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F259" s="12"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>2014</v>
       </c>
@@ -5550,12 +6341,15 @@
       <c r="D260" s="12">
         <v>10232.299999999999</v>
       </c>
-      <c r="E260" s="12" t="s">
+      <c r="E260" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F260" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="12"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>2013</v>
       </c>
@@ -5568,23 +6362,29 @@
       <c r="D261" s="12">
         <v>7988.4</v>
       </c>
-      <c r="E261" s="12" t="s">
+      <c r="E261" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F261" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F261" s="12"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="16">
         <v>2022</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E262" s="12" t="s">
+      <c r="E262" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F262" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>2021</v>
       </c>
@@ -5597,11 +6397,14 @@
       <c r="D263" s="17">
         <v>17327</v>
       </c>
-      <c r="E263" s="12" t="s">
+      <c r="E263" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="16">
         <v>2020</v>
       </c>
@@ -5614,11 +6417,14 @@
       <c r="D264" s="17">
         <v>18501</v>
       </c>
-      <c r="E264" s="12" t="s">
+      <c r="E264" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F264" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>2019</v>
       </c>
@@ -5631,11 +6437,14 @@
       <c r="D265" s="17">
         <v>25155.1</v>
       </c>
-      <c r="E265" s="12" t="s">
+      <c r="E265" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F265" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="16">
         <v>2018</v>
       </c>
@@ -5648,11 +6457,14 @@
       <c r="D266" s="17">
         <v>24734.1</v>
       </c>
-      <c r="E266" s="12" t="s">
+      <c r="E266" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F266" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="16">
         <v>2017</v>
       </c>
@@ -5665,11 +6477,14 @@
       <c r="D267" s="11">
         <v>22136</v>
       </c>
-      <c r="E267" s="12" t="s">
+      <c r="E267" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="16">
         <v>2016</v>
       </c>
@@ -5682,11 +6497,14 @@
       <c r="D268" s="17">
         <v>16202.6</v>
       </c>
-      <c r="E268" s="12" t="s">
+      <c r="E268" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16">
         <v>2015</v>
       </c>
@@ -5699,11 +6517,14 @@
       <c r="D269" s="17">
         <v>14317.4</v>
       </c>
-      <c r="E269" s="12" t="s">
+      <c r="E269" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F269" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="16">
         <v>2014</v>
       </c>
@@ -5716,11 +6537,14 @@
       <c r="D270" s="18">
         <v>12565.5</v>
       </c>
-      <c r="E270" s="12" t="s">
+      <c r="E270" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="16">
         <v>2013</v>
       </c>
@@ -5733,11 +6557,14 @@
       <c r="D271" s="17">
         <v>15460.1</v>
       </c>
-      <c r="E271" s="12" t="s">
+      <c r="E271" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F271" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="16">
         <v>2012</v>
       </c>
@@ -5750,11 +6577,14 @@
       <c r="D272" s="17">
         <v>23046.5</v>
       </c>
-      <c r="E272" s="12" t="s">
+      <c r="E272" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F272" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="16">
         <v>2022</v>
       </c>
@@ -5764,11 +6594,14 @@
       <c r="C273" s="17">
         <v>12506</v>
       </c>
-      <c r="E273" s="12" t="s">
+      <c r="E273" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F273" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="16">
         <v>2021</v>
       </c>
@@ -5781,11 +6614,14 @@
       <c r="D274" s="17">
         <v>7210</v>
       </c>
-      <c r="E274" s="12" t="s">
+      <c r="E274" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F274" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="16">
         <v>2020</v>
       </c>
@@ -5798,11 +6634,14 @@
       <c r="D275" s="17">
         <v>7605</v>
       </c>
-      <c r="E275" s="12" t="s">
+      <c r="E275" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F275" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="16">
         <v>2019</v>
       </c>
@@ -5815,11 +6654,14 @@
       <c r="D276" s="17">
         <v>9960</v>
       </c>
-      <c r="E276" s="12" t="s">
+      <c r="E276" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F276" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="16">
         <v>2018</v>
       </c>
@@ -5832,11 +6674,14 @@
       <c r="D277" s="17">
         <v>10768</v>
       </c>
-      <c r="E277" s="12" t="s">
+      <c r="E277" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F277" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="16">
         <v>2017</v>
       </c>
@@ -5849,11 +6694,14 @@
       <c r="D278" s="17">
         <v>10335</v>
       </c>
-      <c r="E278" s="12" t="s">
+      <c r="E278" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F278" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="16">
         <v>2016</v>
       </c>
@@ -5866,11 +6714,14 @@
       <c r="D279" s="17">
         <v>9792</v>
       </c>
-      <c r="E279" s="12" t="s">
+      <c r="E279" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F279" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <v>2015</v>
       </c>
@@ -5883,11 +6734,14 @@
       <c r="D280" s="17">
         <v>8813</v>
       </c>
-      <c r="E280" s="12" t="s">
+      <c r="E280" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F280" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <v>2014</v>
       </c>
@@ -5900,11 +6754,14 @@
       <c r="D281" s="17">
         <v>8818</v>
       </c>
-      <c r="E281" s="12" t="s">
+      <c r="E281" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F281" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="16">
         <v>2013</v>
       </c>
@@ -5917,11 +6774,14 @@
       <c r="D282" s="17">
         <v>8684</v>
       </c>
-      <c r="E282" s="12" t="s">
+      <c r="E282" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F282" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>2012</v>
       </c>
@@ -5934,11 +6794,14 @@
       <c r="D283" s="17">
         <v>9104</v>
       </c>
-      <c r="E283" s="12" t="s">
+      <c r="E283" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F283" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="16">
         <v>2011</v>
       </c>
@@ -5951,11 +6814,14 @@
       <c r="D284" s="17">
         <v>9499</v>
       </c>
-      <c r="E284" s="12" t="s">
+      <c r="E284" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F284" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>2010</v>
       </c>
@@ -5968,11 +6834,14 @@
       <c r="D285" s="17">
         <v>7318</v>
       </c>
-      <c r="E285" s="12" t="s">
+      <c r="E285" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F285" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>2009</v>
       </c>
@@ -5985,39 +6854,47 @@
       <c r="D286" s="17">
         <v>8148</v>
       </c>
-      <c r="E286" s="12" t="s">
+      <c r="E286" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F286" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="16"/>
       <c r="D287" s="17"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="17"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="16"/>
       <c r="D288" s="17"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="17"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="16"/>
       <c r="D289" s="17"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="17"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="16"/>
       <c r="D290" s="17"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="17"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="D291" s="17"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="17"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="16"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="I23">
-    <sortCondition ref="I23"/>
+  <sortState ref="J23">
+    <sortCondition ref="J23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/NEFMC_abc_acl.xlsx
+++ b/data-raw/NEFMC_abc_acl.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="94">
   <si>
     <t>Time</t>
   </si>
@@ -188,12 +189,132 @@
   <si>
     <t>Quota_Category</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Atlantic Sea Scallop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lb meat </t>
+  </si>
+  <si>
+    <t>million lb</t>
+  </si>
+  <si>
+    <t>FMP</t>
+  </si>
+  <si>
+    <t>Acadian redfish - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>American plaice - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>Atlantic cod - Georges Bank</t>
+  </si>
+  <si>
+    <t>Atlantic cod - Gulf of Maine</t>
+  </si>
+  <si>
+    <t>Atlantic halibut - Northwestern Atlantic Coast</t>
+  </si>
+  <si>
+    <t>Haddock - Georges Bank</t>
+  </si>
+  <si>
+    <t>Haddock - Gulf of Maine</t>
+  </si>
+  <si>
+    <t>Pollock - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>Red hake - Southern Georges Bank / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Silver hake - Gulf of Maine / Northern Georges Bank</t>
+  </si>
+  <si>
+    <t>Silver hake - Southern Georges Bank / Mid-Atlantic | Asmt &amp; Status</t>
+  </si>
+  <si>
+    <t>White hake - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>Winter flounder - Georges Bank</t>
+  </si>
+  <si>
+    <t>Winter flounder - Gulf of Maine</t>
+  </si>
+  <si>
+    <t>Winter flounder - Southern New England / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Witch flounder - Northwestern Atlantic Coast</t>
+  </si>
+  <si>
+    <t>Yellowtail flounder - Cape Cod / Gulf of Maine</t>
+  </si>
+  <si>
+    <t>Yellowtail flounder - Southern New England / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multispecies </t>
+  </si>
+  <si>
+    <t>Atlantic wolffish - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>Ocean pout - Northwestern Atlantic Coast</t>
+  </si>
+  <si>
+    <t>Offshore hake - Northwestern Atlantic Coast | Asmt &amp; Status</t>
+  </si>
+  <si>
+    <t>Red hake - Gulf of Maine / Northern Georges Bank</t>
+  </si>
+  <si>
+    <t>Windowpane - Gulf of Maine / Georges Bank</t>
+  </si>
+  <si>
+    <t>Windowpane - Southern New England / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Yellowtail flounder - Georges Bank</t>
+  </si>
+  <si>
+    <t>Offshore hake - Northwestern Atlantic Coast</t>
+  </si>
+  <si>
+    <t>Silver hake - Southern Georges Bank / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Goosefish - Gulf of Maine / Northern Georges Bank</t>
+  </si>
+  <si>
+    <t>Goosefish - Southern Georges Bank / Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Initial Value on lb meat converted using =Value/2205</t>
+  </si>
+  <si>
+    <t>Initial Value in million lb converted using =(Value*1000000)/2205</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +335,135 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +482,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -404,11 +825,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -457,9 +1037,387 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -6904,8 +7862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="A1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7236,4 +8194,8837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O329"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D334" sqref="D334"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>16131</v>
+      </c>
+      <c r="E2">
+        <v>12571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3">
+        <v>114000</v>
+      </c>
+      <c r="E3">
+        <v>106375</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>95764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2014</v>
+      </c>
+      <c r="D4">
+        <v>114000</v>
+      </c>
+      <c r="E4">
+        <v>107322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>94012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5">
+        <v>114000</v>
+      </c>
+      <c r="E5">
+        <v>107800</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>80736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="D6">
+        <v>111000</v>
+      </c>
+      <c r="E6">
+        <v>104279</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>64181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7">
+        <v>111000</v>
+      </c>
+      <c r="E7">
+        <v>105800</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>49072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>111000</v>
+      </c>
+      <c r="E8">
+        <v>49900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>21266</v>
+      </c>
+      <c r="E9">
+        <v>16065</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>13079.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="24">
+        <f>K10/2205</f>
+        <v>45406.227512326535</v>
+      </c>
+      <c r="E10" s="120">
+        <f>L10/2205</f>
+        <v>44362.406190204078</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="25">
+        <f>O10/2205</f>
+        <v>20852.056235827666</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="120">
+        <v>100120731.66468</v>
+      </c>
+      <c r="L10" s="120">
+        <v>97819105.649399996</v>
+      </c>
+      <c r="M10" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="120">
+        <v>45978784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="120">
+        <f t="shared" ref="D11:E17" si="0">K11/2205</f>
+        <v>45942.13560090703</v>
+      </c>
+      <c r="E11" s="120">
+        <f t="shared" si="0"/>
+        <v>44831.420861678002</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="120">
+        <f t="shared" ref="H11:H17" si="1">O11/2205</f>
+        <v>27834.126077097506</v>
+      </c>
+      <c r="K11" s="120">
+        <v>101302409</v>
+      </c>
+      <c r="L11" s="120">
+        <v>98853283</v>
+      </c>
+      <c r="M11" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="120">
+        <v>61374248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="120">
+        <f t="shared" si="0"/>
+        <v>56993.243990929703</v>
+      </c>
+      <c r="E12" s="120">
+        <f t="shared" si="0"/>
+        <v>55833.442630385485</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="120">
+        <f t="shared" si="1"/>
+        <v>27165.532879818595</v>
+      </c>
+      <c r="K12" s="120">
+        <v>125670103</v>
+      </c>
+      <c r="L12" s="120">
+        <v>123112741</v>
+      </c>
+      <c r="M12" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="118">
+        <v>59900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="120">
+        <f t="shared" si="0"/>
+        <v>46729.001083900228</v>
+      </c>
+      <c r="E13" s="120">
+        <f t="shared" si="0"/>
+        <v>45672.181859410433</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="120">
+        <f t="shared" si="1"/>
+        <v>24308.390022675736</v>
+      </c>
+      <c r="K13" s="120">
+        <v>103037447.39</v>
+      </c>
+      <c r="L13" s="120">
+        <v>100707161</v>
+      </c>
+      <c r="M13" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="17">
+        <v>53600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="120">
+        <f t="shared" si="0"/>
+        <v>37845.521541950111</v>
+      </c>
+      <c r="E14" s="120">
+        <f t="shared" si="0"/>
+        <v>36877.687074829933</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="120">
+        <f t="shared" si="1"/>
+        <v>19365.079365079364</v>
+      </c>
+      <c r="K14" s="120">
+        <v>83449375</v>
+      </c>
+      <c r="L14" s="120">
+        <v>81315300</v>
+      </c>
+      <c r="M14" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="17">
+        <v>42700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="120">
+        <f t="shared" si="0"/>
+        <v>25347.681632653061</v>
+      </c>
+      <c r="E15" s="120">
+        <f t="shared" si="0"/>
+        <v>24504.825396825396</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="120">
+        <f t="shared" si="1"/>
+        <v>16870.748299319726</v>
+      </c>
+      <c r="K15" s="120">
+        <v>55891638</v>
+      </c>
+      <c r="L15" s="120">
+        <v>54033140</v>
+      </c>
+      <c r="M15" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="17">
+        <v>37200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>2014</v>
+      </c>
+      <c r="D16" s="120">
+        <f t="shared" si="0"/>
+        <v>20778.44671201814</v>
+      </c>
+      <c r="E16" s="120">
+        <f t="shared" si="0"/>
+        <v>19980.702947845806</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="120">
+        <f t="shared" si="1"/>
+        <v>14693.877551020409</v>
+      </c>
+      <c r="K16" s="120">
+        <v>45816475</v>
+      </c>
+      <c r="L16" s="120">
+        <v>44057450</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="17">
+        <v>32400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="120">
+        <f t="shared" si="0"/>
+        <v>21000.405442176871</v>
+      </c>
+      <c r="E17" s="120">
+        <f t="shared" si="0"/>
+        <v>20200.832199546487</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="120">
+        <f t="shared" si="1"/>
+        <v>18231.292517006801</v>
+      </c>
+      <c r="K17" s="120">
+        <v>46305894</v>
+      </c>
+      <c r="L17" s="120">
+        <v>44542835</v>
+      </c>
+      <c r="M17" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="17">
+        <v>40200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>2012</v>
+      </c>
+      <c r="D18" s="26">
+        <v>29049</v>
+      </c>
+      <c r="E18" s="27">
+        <v>28169</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="28">
+        <v>26460.79</v>
+      </c>
+      <c r="K18" s="118"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+      <c r="D19" s="29">
+        <v>27268.720000000001</v>
+      </c>
+      <c r="E19" s="30">
+        <v>26406.37</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="32">
+        <v>27245.01</v>
+      </c>
+      <c r="K19" s="118"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="33">
+        <f>(K20*1000000)/2205</f>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="E20" s="120">
+        <f>(L20*1000000)/2205</f>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="34">
+        <f>(O20*1000000)/2205</f>
+        <v>1682.5396825396826</v>
+      </c>
+      <c r="I20" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="L20" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="M20" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="120">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="120">
+        <f t="shared" ref="D21:D26" si="2">(K21*1000000)/2205</f>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="E21" s="120">
+        <f t="shared" ref="E21:E26" si="3">(L21*1000000)/2205</f>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="120">
+        <f t="shared" ref="H21:H26" si="4">(O21*1000000)/2205</f>
+        <v>1350.9292517006802</v>
+      </c>
+      <c r="K21" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="L21" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="M21" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="120">
+        <v>2.978799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22" s="120">
+        <f t="shared" si="2"/>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="E22" s="120">
+        <f t="shared" si="3"/>
+        <v>1774.6961451247166</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="120">
+        <f t="shared" si="4"/>
+        <v>1446.6956916099773</v>
+      </c>
+      <c r="K22" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="L22" s="120">
+        <v>3.913205</v>
+      </c>
+      <c r="M22" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="120">
+        <v>3.1899639999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>2016</v>
+      </c>
+      <c r="D23" s="120">
+        <f t="shared" si="2"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="E23" s="120">
+        <f t="shared" si="3"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="120">
+        <f t="shared" si="4"/>
+        <v>1605.4421768707482</v>
+      </c>
+      <c r="K23" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="L23" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="M23" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="22">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24" s="120">
+        <f t="shared" si="2"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="E24" s="120">
+        <f t="shared" si="3"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="120">
+        <f t="shared" si="4"/>
+        <v>1106.575963718821</v>
+      </c>
+      <c r="K24" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="L24" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="M24" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="22">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+      <c r="D25" s="120">
+        <f t="shared" si="2"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="E25" s="120">
+        <f t="shared" si="3"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="120">
+        <f t="shared" si="4"/>
+        <v>916.09977324263036</v>
+      </c>
+      <c r="K25" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="L25" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="M25" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="22">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="120">
+        <f t="shared" si="2"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="E26" s="120">
+        <f t="shared" si="3"/>
+        <v>1773.2426303854875</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="120">
+        <f t="shared" si="4"/>
+        <v>1315.1927437641723</v>
+      </c>
+      <c r="K26" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="L26" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="M26" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="23">
+        <v>11942</v>
+      </c>
+      <c r="E27" s="23">
+        <v>11351</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="23">
+        <v>6715.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="23">
+        <v>3155</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="23">
+        <v>629.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1291</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1234</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="23">
+        <v>731.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="23">
+        <v>552</v>
+      </c>
+      <c r="E30" s="23">
+        <v>523</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="23">
+        <v>426.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="23">
+        <v>106</v>
+      </c>
+      <c r="E31" s="23">
+        <v>102</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="23">
+        <v>65.849999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="23">
+        <v>131567</v>
+      </c>
+      <c r="E32" s="23">
+        <v>124969</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="23">
+        <v>6513.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D33" s="23">
+        <v>19696</v>
+      </c>
+      <c r="E33" s="23">
+        <v>18580</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="23">
+        <v>5320.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="23">
+        <v>27447</v>
+      </c>
+      <c r="E34" s="23">
+        <v>26184</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>5626.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1060</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1007</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1915.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D36" s="23">
+        <v>31030</v>
+      </c>
+      <c r="E36" s="23">
+        <v>29475</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>1586.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2147</v>
+      </c>
+      <c r="E38" s="23">
+        <v>2041</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1840.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="23">
+        <v>561</v>
+      </c>
+      <c r="E39" s="23">
+        <v>545</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="23">
+        <v>308.27999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="23">
+        <v>447</v>
+      </c>
+      <c r="E40" s="23">
+        <v>432</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="23">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D41" s="23">
+        <v>727</v>
+      </c>
+      <c r="E41" s="23">
+        <v>699</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="23">
+        <v>233.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1483</v>
+      </c>
+      <c r="E42" s="23">
+        <v>1414</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="23">
+        <v>944.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D43" s="23">
+        <v>823</v>
+      </c>
+      <c r="E43" s="23">
+        <v>787</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="23">
+        <v>245.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="23">
+        <v>22</v>
+      </c>
+      <c r="E44" s="23">
+        <v>21</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="23">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="23">
+        <v>11942</v>
+      </c>
+      <c r="E45" s="23">
+        <v>11351</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="23">
+        <v>6715.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D46" s="23">
+        <v>3155</v>
+      </c>
+      <c r="E46" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="23">
+        <v>629.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="23">
+        <v>1291</v>
+      </c>
+      <c r="E47" s="23">
+        <v>1234</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="23">
+        <v>731.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="23">
+        <v>552</v>
+      </c>
+      <c r="E48" s="23">
+        <v>523</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="23">
+        <v>426.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="23">
+        <v>106</v>
+      </c>
+      <c r="E49" s="23">
+        <v>102</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="23">
+        <v>65.849999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="23">
+        <v>131567</v>
+      </c>
+      <c r="E50" s="23">
+        <v>124969</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="23">
+        <v>6513.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D51" s="23">
+        <v>19696</v>
+      </c>
+      <c r="E51" s="23">
+        <v>18580</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="23">
+        <v>5320.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="23">
+        <v>27447</v>
+      </c>
+      <c r="E52" s="23">
+        <v>26184</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="23">
+        <v>5626.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="23">
+        <v>1060</v>
+      </c>
+      <c r="E53" s="23">
+        <v>1007</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="23">
+        <v>1915.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D54" s="23">
+        <v>31030</v>
+      </c>
+      <c r="E54" s="23">
+        <v>29475</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1586.49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D56" s="23">
+        <v>2147</v>
+      </c>
+      <c r="E56" s="23">
+        <v>2041</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="23">
+        <v>1840.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D57" s="23">
+        <v>561</v>
+      </c>
+      <c r="E57" s="23">
+        <v>545</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="23">
+        <v>308.27999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="23">
+        <v>447</v>
+      </c>
+      <c r="E58" s="23">
+        <v>432</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="23">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D59" s="23">
+        <v>727</v>
+      </c>
+      <c r="E59" s="23">
+        <v>699</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="23">
+        <v>233.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1483</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1414</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="23">
+        <v>944.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D61" s="23">
+        <v>823</v>
+      </c>
+      <c r="E61" s="23">
+        <v>787</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="23">
+        <v>245.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D62" s="23">
+        <v>22</v>
+      </c>
+      <c r="E62" s="23">
+        <v>21</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="23">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D63" s="38">
+        <v>11785</v>
+      </c>
+      <c r="E63" s="38">
+        <v>11208</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="40">
+        <v>4962.97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D64" s="38">
+        <v>1609</v>
+      </c>
+      <c r="E64" s="38">
+        <v>1532</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="40">
+        <v>870.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D65" s="38">
+        <v>1824</v>
+      </c>
+      <c r="E65" s="38">
+        <v>1741</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="40">
+        <v>641.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D66" s="38">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38">
+        <v>666</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="40">
+        <v>396.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D67" s="38">
+        <v>104</v>
+      </c>
+      <c r="E67" s="38">
+        <v>100</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="40">
+        <v>102.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D68" s="38">
+        <v>58114</v>
+      </c>
+      <c r="E68" s="38">
+        <v>55249</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="40">
+        <v>5323.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D69" s="38">
+        <v>12490</v>
+      </c>
+      <c r="E69" s="38">
+        <v>11803</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="40">
+        <v>4152.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D70" s="38">
+        <v>40172</v>
+      </c>
+      <c r="E70" s="38">
+        <v>38204</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="40">
+        <v>3569.58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D71" s="38">
+        <v>1060</v>
+      </c>
+      <c r="E71" s="38">
+        <v>1007</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="40">
+        <v>1823.73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D72" s="38">
+        <v>31030</v>
+      </c>
+      <c r="E72" s="38">
+        <v>29475</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="40">
+        <v>1445.82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="39"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D74" s="38">
+        <v>2938</v>
+      </c>
+      <c r="E74" s="38">
+        <v>2794</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="40">
+        <v>2087.9899999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D75" s="38">
+        <v>810</v>
+      </c>
+      <c r="E75" s="38">
+        <v>786</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="40">
+        <v>328.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D76" s="38">
+        <v>447</v>
+      </c>
+      <c r="E76" s="38">
+        <v>428</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="40">
+        <v>146.88999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D77" s="38">
+        <v>727</v>
+      </c>
+      <c r="E77" s="38">
+        <v>700</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="40">
+        <v>295.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D78" s="38">
+        <v>993</v>
+      </c>
+      <c r="E78" s="38">
+        <v>948</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="40">
+        <v>827.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D79" s="38">
+        <v>511</v>
+      </c>
+      <c r="E79" s="38">
+        <v>490</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="40">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D80" s="38">
+        <v>68</v>
+      </c>
+      <c r="E80" s="38">
+        <v>66</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="40">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D81" s="43">
+        <v>11552</v>
+      </c>
+      <c r="E81" s="43">
+        <v>10986</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="45">
+        <v>5369.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D82" s="43">
+        <v>1732</v>
+      </c>
+      <c r="E82" s="43">
+        <v>1649</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="45">
+        <v>1147.8900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D83" s="43">
+        <v>1591</v>
+      </c>
+      <c r="E83" s="43">
+        <v>1519</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="45">
+        <v>887.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D84" s="43">
+        <v>703</v>
+      </c>
+      <c r="E84" s="43">
+        <v>666</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="45">
+        <v>504.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D85" s="43">
+        <v>104</v>
+      </c>
+      <c r="E85" s="43">
+        <v>100</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="45">
+        <v>103.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D86" s="43">
+        <v>90</v>
+      </c>
+      <c r="E86" s="43">
+        <v>84</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="45">
+        <v>1.6065179999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D87" s="43">
+        <v>48714</v>
+      </c>
+      <c r="E87" s="43">
+        <v>46312</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="45">
+        <v>5324.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D88" s="43">
+        <v>13131</v>
+      </c>
+      <c r="E88" s="43">
+        <v>12409</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="45">
+        <v>3605.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D89" s="43">
+        <v>127</v>
+      </c>
+      <c r="E89" s="43">
+        <v>120</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="45">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="44"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D91" s="43">
+        <v>40172</v>
+      </c>
+      <c r="E91" s="43">
+        <v>38204</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="45">
+        <v>4179.1400000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D92" s="43">
+        <v>721</v>
+      </c>
+      <c r="E92" s="43">
+        <v>685</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" s="45">
+        <v>291.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D93" s="43">
+        <v>1060</v>
+      </c>
+      <c r="E93" s="43">
+        <v>1007</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="45">
+        <v>1661.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D94" s="43">
+        <v>31030</v>
+      </c>
+      <c r="E94" s="43">
+        <v>29475</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="45">
+        <v>2168.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="44"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D96" s="43">
+        <v>2938</v>
+      </c>
+      <c r="E96" s="43">
+        <v>2794</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H96" s="45">
+        <v>2113.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D97" s="43">
+        <v>92</v>
+      </c>
+      <c r="E97" s="43">
+        <v>86</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="45">
+        <v>56.65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D98" s="43">
+        <v>473</v>
+      </c>
+      <c r="E98" s="43">
+        <v>457</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="45">
+        <v>454.69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D99" s="43">
+        <v>810</v>
+      </c>
+      <c r="E99" s="43">
+        <v>787</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" s="45">
+        <v>465.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D100" s="43">
+        <v>447</v>
+      </c>
+      <c r="E100" s="43">
+        <v>428</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H100" s="45">
+        <v>233.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D101" s="43">
+        <v>727</v>
+      </c>
+      <c r="E101" s="43">
+        <v>700</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="45">
+        <v>397.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D102" s="43">
+        <v>993</v>
+      </c>
+      <c r="E102" s="43">
+        <v>948</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" s="45">
+        <v>906.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D103" s="43">
+        <v>511</v>
+      </c>
+      <c r="E103" s="43">
+        <v>490</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H103" s="45">
+        <v>254.73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D104" s="43">
+        <v>213</v>
+      </c>
+      <c r="E104" s="43">
+        <v>206</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H104" s="45">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D105" s="43">
+        <v>68</v>
+      </c>
+      <c r="E105" s="43">
+        <v>66</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H105" s="45">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D106" s="48">
+        <v>11050</v>
+      </c>
+      <c r="E106" s="48">
+        <v>10514</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H106" s="50">
+        <v>4661.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D107" s="48">
+        <v>1336</v>
+      </c>
+      <c r="E107" s="48">
+        <v>1272</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H107" s="50">
+        <v>1132.8399999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D108" s="48">
+        <v>665</v>
+      </c>
+      <c r="E108" s="48">
+        <v>637</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H108" s="50">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D109" s="48">
+        <v>500</v>
+      </c>
+      <c r="E109" s="48">
+        <v>473</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" s="50">
+        <v>612.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D110" s="48">
+        <v>124</v>
+      </c>
+      <c r="E110" s="48">
+        <v>119</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H110" s="50">
+        <v>107.43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D111" s="48">
+        <v>82</v>
+      </c>
+      <c r="E111" s="48">
+        <v>77</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H111" s="50">
+        <v>1.687222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D112" s="48">
+        <v>57398</v>
+      </c>
+      <c r="E112" s="48">
+        <v>54568</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="50">
+        <v>4330.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D113" s="48">
+        <v>4534</v>
+      </c>
+      <c r="E113" s="48">
+        <v>4285</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H113" s="50">
+        <v>3145.62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D114" s="48">
+        <v>165</v>
+      </c>
+      <c r="E114" s="48">
+        <v>155</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H114" s="50">
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H115" s="49"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D116" s="48">
+        <v>21312</v>
+      </c>
+      <c r="E116" s="48">
+        <v>20374</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H116" s="50">
+        <v>4421.3999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D117" s="48">
+        <v>496</v>
+      </c>
+      <c r="E117" s="48">
+        <v>471</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H117" s="50">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D118" s="48">
+        <v>1717</v>
+      </c>
+      <c r="E118" s="48">
+        <v>1631</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H118" s="50">
+        <v>1155.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D119" s="48">
+        <v>24383</v>
+      </c>
+      <c r="E119" s="48">
+        <v>23161</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H119" s="50">
+        <v>2921.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="49"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D121" s="48">
+        <v>3644</v>
+      </c>
+      <c r="E121" s="48">
+        <v>3467</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H121" s="50">
+        <v>2035.64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D122" s="48">
+        <v>182</v>
+      </c>
+      <c r="E122" s="48">
+        <v>170</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H122" s="50">
+        <v>87.45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D123" s="48">
+        <v>623</v>
+      </c>
+      <c r="E123" s="48">
+        <v>599</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H123" s="50">
+        <v>440.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D124" s="48">
+        <v>702</v>
+      </c>
+      <c r="E124" s="48">
+        <v>683</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H124" s="50">
+        <v>390.85645699999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D125" s="48">
+        <v>810</v>
+      </c>
+      <c r="E125" s="48">
+        <v>776</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H125" s="50">
+        <v>308.08999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D126" s="48">
+        <v>780</v>
+      </c>
+      <c r="E126" s="48">
+        <v>749</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H126" s="50">
+        <v>550.48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D127" s="48">
+        <v>878</v>
+      </c>
+      <c r="E127" s="48">
+        <v>839</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H127" s="50">
+        <v>591.15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D128" s="48">
+        <v>427</v>
+      </c>
+      <c r="E128" s="48">
+        <v>409</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="50">
+        <v>311.52999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D129" s="48">
+        <v>207</v>
+      </c>
+      <c r="E129" s="48">
+        <v>201</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" s="50">
+        <v>83.980541000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="21">
+        <v>2017</v>
+      </c>
+      <c r="D130" s="48">
+        <v>267</v>
+      </c>
+      <c r="E130" s="48">
+        <v>256</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H130" s="50">
+        <v>24.450959999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D131" s="53">
+        <v>10338</v>
+      </c>
+      <c r="E131" s="53">
+        <v>9837</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H131" s="55">
+        <v>4091.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D132" s="53">
+        <v>1297</v>
+      </c>
+      <c r="E132" s="53">
+        <v>1235</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H132" s="55">
+        <v>1211.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D133" s="53">
+        <v>762</v>
+      </c>
+      <c r="E133" s="53">
+        <v>730</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H133" s="55">
+        <v>1125.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D134" s="53">
+        <v>500</v>
+      </c>
+      <c r="E134" s="53">
+        <v>473</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H134" s="55">
+        <v>646.21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D135" s="53">
+        <v>124</v>
+      </c>
+      <c r="E135" s="53">
+        <v>119</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H135" s="55">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D136" s="53">
+        <v>82</v>
+      </c>
+      <c r="E136" s="53">
+        <v>77</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="55">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B137" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D137" s="53">
+        <v>56068</v>
+      </c>
+      <c r="E137" s="53">
+        <v>53309</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="55">
+        <v>4790.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D138" s="53">
+        <v>3630</v>
+      </c>
+      <c r="E138" s="53">
+        <v>3430</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" s="55">
+        <v>2582.87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D139" s="53">
+        <v>165</v>
+      </c>
+      <c r="E139" s="53">
+        <v>155</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H139" s="55">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H140" s="54"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D141" s="53">
+        <v>21312</v>
+      </c>
+      <c r="E141" s="53">
+        <v>20374</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H141" s="55">
+        <v>3998.68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B142" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D142" s="53">
+        <v>496</v>
+      </c>
+      <c r="E142" s="53">
+        <v>471</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H142" s="55">
+        <v>407.48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B143" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D143" s="53">
+        <v>1717</v>
+      </c>
+      <c r="E143" s="53">
+        <v>1631</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" s="55">
+        <v>1223.96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D144" s="53">
+        <v>24383</v>
+      </c>
+      <c r="E144" s="53">
+        <v>23161</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="55">
+        <v>3468.79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H145" s="54"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B146" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D146" s="53">
+        <v>3754</v>
+      </c>
+      <c r="E146" s="53">
+        <v>3572</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H146" s="55">
+        <v>1483.47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D147" s="53">
+        <v>182</v>
+      </c>
+      <c r="E147" s="53">
+        <v>177</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H147" s="55">
+        <v>83.65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D148" s="53">
+        <v>623</v>
+      </c>
+      <c r="E148" s="53">
+        <v>599</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H148" s="55">
+        <v>417.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D149" s="53">
+        <v>668</v>
+      </c>
+      <c r="E149" s="53">
+        <v>650</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H149" s="55">
+        <v>426.88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D150" s="53">
+        <v>810</v>
+      </c>
+      <c r="E150" s="53">
+        <v>776</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H150" s="55">
+        <v>217.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D151" s="53">
+        <v>780</v>
+      </c>
+      <c r="E151" s="53">
+        <v>749</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H151" s="55">
+        <v>635.84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D152" s="53">
+        <v>460</v>
+      </c>
+      <c r="E152" s="53">
+        <v>441</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" s="55">
+        <v>460.76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D153" s="53">
+        <v>427</v>
+      </c>
+      <c r="E153" s="53">
+        <v>409</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" s="55">
+        <v>363.52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D154" s="53">
+        <v>269</v>
+      </c>
+      <c r="E154" s="53">
+        <v>261</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H154" s="55">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D155" s="53">
+        <v>267</v>
+      </c>
+      <c r="E155" s="53">
+        <v>255</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H155" s="55">
+        <v>85.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D156" s="58">
+        <v>11974</v>
+      </c>
+      <c r="E156" s="58">
+        <v>11393</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H156" s="60">
+        <v>5291.77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D157" s="58">
+        <v>1544</v>
+      </c>
+      <c r="E157" s="58">
+        <v>1470</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H157" s="60">
+        <v>1425.06</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D158" s="58">
+        <v>1980</v>
+      </c>
+      <c r="E158" s="58">
+        <v>1886</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" s="60">
+        <v>1835.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D159" s="58">
+        <v>386</v>
+      </c>
+      <c r="E159" s="58">
+        <v>366</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H159" s="60">
+        <v>324.83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B160" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C160" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D160" s="58">
+        <v>100</v>
+      </c>
+      <c r="E160" s="58">
+        <v>97</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" s="60">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C161" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D161" s="58">
+        <v>70</v>
+      </c>
+      <c r="E161" s="58">
+        <v>65</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H161" s="60">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C162" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D162" s="58">
+        <v>24366</v>
+      </c>
+      <c r="E162" s="58">
+        <v>23204</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H162" s="60">
+        <v>6003.54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D163" s="58">
+        <v>1454</v>
+      </c>
+      <c r="E163" s="58">
+        <v>1375</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H163" s="60">
+        <v>1139.8499999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D164" s="58">
+        <v>235</v>
+      </c>
+      <c r="E164" s="58">
+        <v>220</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H164" s="60">
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D165" s="57"/>
+      <c r="E165" s="57"/>
+      <c r="F165" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H165" s="59"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D166" s="58">
+        <v>16600</v>
+      </c>
+      <c r="E166" s="58">
+        <v>15878</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H166" s="60">
+        <v>3995.12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D167" s="58">
+        <v>287</v>
+      </c>
+      <c r="E167" s="58">
+        <v>273</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H167" s="60">
+        <v>341.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D168" s="58">
+        <v>3179</v>
+      </c>
+      <c r="E168" s="58">
+        <v>3021</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H168" s="60">
+        <v>1564.18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C169" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D169" s="58">
+        <v>24383</v>
+      </c>
+      <c r="E169" s="58">
+        <v>23161</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="60">
+        <v>2561.9499999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C170" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D170" s="57"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H170" s="59"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D171" s="58">
+        <v>4713</v>
+      </c>
+      <c r="E171" s="58">
+        <v>4484</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H171" s="60">
+        <v>1606.59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D172" s="58">
+        <v>151</v>
+      </c>
+      <c r="E172" s="58">
+        <v>144</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H172" s="60">
+        <v>189.79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B173" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D173" s="58">
+        <v>548</v>
+      </c>
+      <c r="E173" s="58">
+        <v>527</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H173" s="60">
+        <v>643.38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B174" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D174" s="58">
+        <v>2010</v>
+      </c>
+      <c r="E174" s="58">
+        <v>1952</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G174" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H174" s="60">
+        <v>886.47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D175" s="58">
+        <v>510</v>
+      </c>
+      <c r="E175" s="58">
+        <v>489</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H175" s="60">
+        <v>205.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D176" s="58">
+        <v>1676</v>
+      </c>
+      <c r="E176" s="58">
+        <v>1607</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H176" s="60">
+        <v>886.67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B177" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D177" s="58">
+        <v>783</v>
+      </c>
+      <c r="E177" s="58">
+        <v>751</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" s="60">
+        <v>639.42999999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D178" s="58">
+        <v>548</v>
+      </c>
+      <c r="E178" s="58">
+        <v>524</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H178" s="60">
+        <v>465.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B179" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D179" s="58">
+        <v>248</v>
+      </c>
+      <c r="E179" s="58">
+        <v>240</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H179" s="60">
+        <v>68.209999999999994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B180" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" s="21">
+        <v>2015</v>
+      </c>
+      <c r="D180" s="58">
+        <v>700</v>
+      </c>
+      <c r="E180" s="58">
+        <v>666</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H180" s="60">
+        <v>326.57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B181" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D181" s="63">
+        <v>11465</v>
+      </c>
+      <c r="E181" s="63">
+        <v>10908.95</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G181" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H181" s="65">
+        <v>4748.43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B182" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C182" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D182" s="63">
+        <v>1515</v>
+      </c>
+      <c r="E182" s="63">
+        <v>1442.28</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H182" s="65">
+        <v>1342.29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B183" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D183" s="63">
+        <v>1960</v>
+      </c>
+      <c r="E183" s="63">
+        <v>1866.9</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H183" s="65">
+        <v>1514.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B184" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D184" s="63">
+        <v>1550</v>
+      </c>
+      <c r="E184" s="63">
+        <v>1469.76</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H184" s="65">
+        <v>1394.85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B185" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D185" s="63">
+        <v>109</v>
+      </c>
+      <c r="E185" s="63">
+        <v>106</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H185" s="65">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D186" s="63">
+        <v>70</v>
+      </c>
+      <c r="E186" s="63">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="F186" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H186" s="65">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D187" s="63">
+        <v>19229</v>
+      </c>
+      <c r="E187" s="63">
+        <v>18311.78</v>
+      </c>
+      <c r="F187" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H187" s="65">
+        <v>6363.98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B188" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C188" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D188" s="63">
+        <v>677</v>
+      </c>
+      <c r="E188" s="63">
+        <v>641</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H188" s="65">
+        <v>1019.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B189" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D189" s="63">
+        <v>235</v>
+      </c>
+      <c r="E189" s="63">
+        <v>220.2</v>
+      </c>
+      <c r="F189" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H189" s="65">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B190" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D190" s="62"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H190" s="64"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D191" s="63">
+        <v>16000</v>
+      </c>
+      <c r="E191" s="63">
+        <v>15304</v>
+      </c>
+      <c r="F191" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H191" s="65">
+        <v>4753.7299999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B192" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D192" s="63">
+        <v>280</v>
+      </c>
+      <c r="E192" s="63">
+        <v>266</v>
+      </c>
+      <c r="F192" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H192" s="65">
+        <v>283.42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C193" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D193" s="63">
+        <v>3259</v>
+      </c>
+      <c r="E193" s="63">
+        <v>3096</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H193" s="65">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B194" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D194" s="63">
+        <v>13177</v>
+      </c>
+      <c r="E194" s="63">
+        <v>12518</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H194" s="65">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B195" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D195" s="62"/>
+      <c r="E195" s="62"/>
+      <c r="F195" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H195" s="64"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B196" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D196" s="63">
+        <v>4642</v>
+      </c>
+      <c r="E196" s="63">
+        <v>4416.8599999999997</v>
+      </c>
+      <c r="F196" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H196" s="65">
+        <v>2058.17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B197" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D197" s="63">
+        <v>151</v>
+      </c>
+      <c r="E197" s="63">
+        <v>143.6</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H197" s="65">
+        <v>269.32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B198" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D198" s="63">
+        <v>548</v>
+      </c>
+      <c r="E198" s="63">
+        <v>526.52</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H198" s="65">
+        <v>477.96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B199" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C199" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D199" s="63">
+        <v>3598</v>
+      </c>
+      <c r="E199" s="63">
+        <v>3493.3</v>
+      </c>
+      <c r="F199" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G199" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H199" s="65">
+        <v>1193.17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B200" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C200" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D200" s="63">
+        <v>1078</v>
+      </c>
+      <c r="E200" s="63">
+        <v>1040.3800000000001</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H200" s="65">
+        <v>240.77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D201" s="63">
+        <v>1676</v>
+      </c>
+      <c r="E201" s="63">
+        <v>1612.31</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G201" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H201" s="65">
+        <v>703.16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B202" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C202" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D202" s="63">
+        <v>783</v>
+      </c>
+      <c r="E202" s="63">
+        <v>750.9</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H202" s="65">
+        <v>624.04999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B203" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C203" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D203" s="63">
+        <v>548</v>
+      </c>
+      <c r="E203" s="63">
+        <v>522.79</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H203" s="65">
+        <v>335.09</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B204" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D204" s="63">
+        <v>328</v>
+      </c>
+      <c r="E204" s="63">
+        <v>318.08999999999997</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H204" s="65">
+        <v>122.83</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B205" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D205" s="63">
+        <v>700</v>
+      </c>
+      <c r="E205" s="63">
+        <v>665.32</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H205" s="65">
+        <v>497.12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B206" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C206" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D206" s="68">
+        <v>10995</v>
+      </c>
+      <c r="E206" s="68">
+        <v>10461.74</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H206" s="70">
+        <v>4023.49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B207" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C207" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D207" s="68">
+        <v>1557</v>
+      </c>
+      <c r="E207" s="68">
+        <v>1482.26</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G207" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H207" s="70">
+        <v>1444.63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B208" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C208" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D208" s="68">
+        <v>2002</v>
+      </c>
+      <c r="E208" s="68">
+        <v>1907</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H208" s="70">
+        <v>1616.34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B209" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D209" s="68">
+        <v>1550</v>
+      </c>
+      <c r="E209" s="68">
+        <v>1470</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G209" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H209" s="70">
+        <v>1418.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B210" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D210" s="68">
+        <v>99</v>
+      </c>
+      <c r="E210" s="68">
+        <v>96.28</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H210" s="70">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B211" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D211" s="68">
+        <v>29335</v>
+      </c>
+      <c r="E211" s="68">
+        <v>27935.72</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G211" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H211" s="70">
+        <v>3330.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B212" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D212" s="68">
+        <v>290</v>
+      </c>
+      <c r="E212" s="68">
+        <v>274.37</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G212" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H212" s="70">
+        <v>405.74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B213" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C213" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D213" s="68">
+        <v>235</v>
+      </c>
+      <c r="E213" s="68">
+        <v>220.2</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G213" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H213" s="70">
+        <v>59.28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B214" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C214" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G214" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H214" s="69"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B215" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C215" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D215" s="68">
+        <v>15600</v>
+      </c>
+      <c r="E215" s="68">
+        <v>14921.4</v>
+      </c>
+      <c r="F215" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G215" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H215" s="70">
+        <v>7029.09</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B216" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C216" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D216" s="68">
+        <v>280</v>
+      </c>
+      <c r="E216" s="68">
+        <v>266</v>
+      </c>
+      <c r="F216" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G216" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H216" s="70">
+        <v>363.86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B217" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C217" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D217" s="68">
+        <v>3259</v>
+      </c>
+      <c r="E217" s="68">
+        <v>3096</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H217" s="70">
+        <v>1173.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B218" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C218" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D218" s="68">
+        <v>13177</v>
+      </c>
+      <c r="E218" s="68">
+        <v>12518</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G218" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H218" s="70">
+        <v>320.05</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B219" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D219" s="67"/>
+      <c r="E219" s="67"/>
+      <c r="F219" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H219" s="69"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B220" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C220" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D220" s="68">
+        <v>4177</v>
+      </c>
+      <c r="E220" s="68">
+        <v>3974</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G220" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H220" s="70">
+        <v>2056.27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B221" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D221" s="68">
+        <v>151</v>
+      </c>
+      <c r="E221" s="68">
+        <v>143.6</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H221" s="70">
+        <v>280.07</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B222" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C222" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D222" s="68">
+        <v>548</v>
+      </c>
+      <c r="E222" s="68">
+        <v>527</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H222" s="70">
+        <v>554.72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B223" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D223" s="68">
+        <v>3750</v>
+      </c>
+      <c r="E223" s="68">
+        <v>3641</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H223" s="70">
+        <v>1763.07</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B224" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C224" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D224" s="68">
+        <v>1078</v>
+      </c>
+      <c r="E224" s="68">
+        <v>1040.3800000000001</v>
+      </c>
+      <c r="F224" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G224" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H224" s="70">
+        <v>245.62</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B225" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D225" s="68">
+        <v>1676</v>
+      </c>
+      <c r="E225" s="68">
+        <v>1612</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G225" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H225" s="70">
+        <v>1025.93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B226" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C226" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D226" s="68">
+        <v>783</v>
+      </c>
+      <c r="E226" s="68">
+        <v>750.9</v>
+      </c>
+      <c r="F226" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G226" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H226" s="70">
+        <v>745.21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B227" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D227" s="68">
+        <v>548</v>
+      </c>
+      <c r="E227" s="68">
+        <v>522.79</v>
+      </c>
+      <c r="F227" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G227" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H227" s="70">
+        <v>453.11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B228" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C228" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D228" s="68">
+        <v>215</v>
+      </c>
+      <c r="E228" s="68">
+        <v>208.5</v>
+      </c>
+      <c r="F228" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G228" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H228" s="70">
+        <v>93.27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B229" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C229" s="21">
+        <v>2013</v>
+      </c>
+      <c r="D229" s="68">
+        <v>700</v>
+      </c>
+      <c r="E229" s="68">
+        <v>665</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G229" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H229" s="70">
+        <v>466.06</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B230" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C230" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D230" s="73">
+        <v>9224</v>
+      </c>
+      <c r="E230" s="73">
+        <v>8786</v>
+      </c>
+      <c r="F230" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G230" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H230" s="75">
+        <v>4445.43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B231" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D231" s="73">
+        <v>3632</v>
+      </c>
+      <c r="E231" s="73">
+        <v>3459</v>
+      </c>
+      <c r="F231" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G231" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H231" s="75">
+        <v>1642.85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B232" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C232" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D232" s="73">
+        <v>5103</v>
+      </c>
+      <c r="E232" s="73">
+        <v>4861</v>
+      </c>
+      <c r="F232" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G232" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H232" s="75">
+        <v>1724.06</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D233" s="73">
+        <v>7066</v>
+      </c>
+      <c r="E233" s="73">
+        <v>6700</v>
+      </c>
+      <c r="F233" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G233" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H233" s="75">
+        <v>3903.84</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B234" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C234" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D234" s="73">
+        <v>85</v>
+      </c>
+      <c r="E234" s="73">
+        <v>83</v>
+      </c>
+      <c r="F234" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G234" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H234" s="75">
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C235" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D235" s="73">
+        <v>30726</v>
+      </c>
+      <c r="E235" s="73">
+        <v>29260</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H235" s="75">
+        <v>1525.49</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C236" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D236" s="73">
+        <v>1013</v>
+      </c>
+      <c r="E236" s="73">
+        <v>958</v>
+      </c>
+      <c r="F236" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G236" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H236" s="75">
+        <v>530.03</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D237" s="73">
+        <v>256</v>
+      </c>
+      <c r="E237" s="73">
+        <v>240</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G237" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H237" s="75">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B238" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C238" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D238" s="72"/>
+      <c r="E238" s="72"/>
+      <c r="F238" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G238" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H238" s="74"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B239" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D239" s="73">
+        <v>15400</v>
+      </c>
+      <c r="E239" s="73">
+        <v>14736</v>
+      </c>
+      <c r="F239" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H239" s="75">
+        <v>8092.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B240" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C240" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D240" s="73">
+        <v>280</v>
+      </c>
+      <c r="E240" s="73">
+        <v>266</v>
+      </c>
+      <c r="F240" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G240" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H240" s="75">
+        <v>386.49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B241" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D241" s="73">
+        <v>3259</v>
+      </c>
+      <c r="E241" s="73">
+        <v>3096</v>
+      </c>
+      <c r="F241" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G241" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H241" s="75">
+        <v>1190.8900000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B242" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D242" s="73">
+        <v>13177</v>
+      </c>
+      <c r="E242" s="73">
+        <v>12518</v>
+      </c>
+      <c r="F242" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G242" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H242" s="75">
+        <v>2206.5500000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B243" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C243" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D243" s="72"/>
+      <c r="E243" s="72"/>
+      <c r="F243" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G243" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H243" s="74"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B244" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C244" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D244" s="73">
+        <v>3638</v>
+      </c>
+      <c r="E244" s="73">
+        <v>3465</v>
+      </c>
+      <c r="F244" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G244" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H244" s="75">
+        <v>2485.36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B245" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C245" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D245" s="73">
+        <v>173</v>
+      </c>
+      <c r="E245" s="73">
+        <v>163</v>
+      </c>
+      <c r="F245" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G245" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H245" s="75">
+        <v>208.89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B246" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C246" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D246" s="73">
+        <v>386</v>
+      </c>
+      <c r="E246" s="73">
+        <v>381</v>
+      </c>
+      <c r="F246" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G246" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H246" s="75">
+        <v>520.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B247" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C247" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D247" s="73">
+        <v>3753</v>
+      </c>
+      <c r="E247" s="73">
+        <v>3575</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H247" s="75">
+        <v>2057.64</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B248" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C248" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D248" s="73">
+        <v>1078</v>
+      </c>
+      <c r="E248" s="73">
+        <v>1040</v>
+      </c>
+      <c r="F248" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G248" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H248" s="75">
+        <v>322.77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B249" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C249" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D249" s="73">
+        <v>626</v>
+      </c>
+      <c r="E249" s="73">
+        <v>603</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G249" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H249" s="75">
+        <v>315.89</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B250" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C250" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D250" s="73">
+        <v>1639</v>
+      </c>
+      <c r="E250" s="73">
+        <v>1563</v>
+      </c>
+      <c r="F250" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G250" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H250" s="75">
+        <v>1173.98</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B251" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C251" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D251" s="73">
+        <v>1159</v>
+      </c>
+      <c r="E251" s="73">
+        <v>1104</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G251" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H251" s="75">
+        <v>1012.25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B252" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C252" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D252" s="73">
+        <v>564</v>
+      </c>
+      <c r="E252" s="73">
+        <v>547.79999999999995</v>
+      </c>
+      <c r="F252" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G252" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H252" s="75">
+        <v>384.91</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B253" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C253" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D253" s="73">
+        <v>1003</v>
+      </c>
+      <c r="E253" s="73">
+        <v>936</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G253" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H253" s="75">
+        <v>593.54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B254" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C254" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D254" s="78">
+        <v>8356</v>
+      </c>
+      <c r="E254" s="78">
+        <v>7959</v>
+      </c>
+      <c r="F254" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G254" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H254" s="80">
+        <v>2720.5675019999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C255" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D255" s="78">
+        <v>3444</v>
+      </c>
+      <c r="E255" s="78">
+        <v>3280</v>
+      </c>
+      <c r="F255" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G255" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H255" s="80">
+        <v>1660.72</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B256" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D256" s="78">
+        <v>4766</v>
+      </c>
+      <c r="E256" s="78">
+        <v>4540</v>
+      </c>
+      <c r="F256" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G256" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H256" s="80">
+        <v>3405.86</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B257" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C257" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D257" s="78">
+        <v>9012</v>
+      </c>
+      <c r="E257" s="78">
+        <v>8545</v>
+      </c>
+      <c r="F257" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G257" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H257" s="80">
+        <v>6347.08</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B258" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C258" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D258" s="78">
+        <v>78</v>
+      </c>
+      <c r="E258" s="78">
+        <v>76</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G258" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H258" s="80">
+        <v>52.140023999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B259" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C259" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D259" s="78">
+        <v>34244</v>
+      </c>
+      <c r="E259" s="78">
+        <v>32611</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G259" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H259" s="80">
+        <v>4251.99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B260" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C260" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D260" s="78">
+        <v>1206</v>
+      </c>
+      <c r="E260" s="78">
+        <v>1141</v>
+      </c>
+      <c r="F260" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G260" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H260" s="80">
+        <v>737.62206300000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B261" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C261" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D261" s="78">
+        <v>271</v>
+      </c>
+      <c r="E261" s="78">
+        <v>253</v>
+      </c>
+      <c r="F261" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G261" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H261" s="80">
+        <v>90.249115000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B262" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C262" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D262" s="77"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G262" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H262" s="79"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B263" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C263" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D263" s="78">
+        <v>16900</v>
+      </c>
+      <c r="E263" s="78">
+        <v>16166</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G263" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H263" s="80">
+        <v>9064.0116359999993</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B264" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D264" s="77"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G264" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H264" s="79"/>
+    </row>
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B265" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C265" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D265" s="77"/>
+      <c r="E265" s="77"/>
+      <c r="F265" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G265" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H265" s="79"/>
+    </row>
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B266" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C266" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D266" s="77"/>
+      <c r="E266" s="77"/>
+      <c r="F266" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G266" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" s="79"/>
+    </row>
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B267" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D267" s="77"/>
+      <c r="E267" s="77"/>
+      <c r="F267" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G267" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H267" s="79"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B268" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C268" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D268" s="78">
+        <v>3295</v>
+      </c>
+      <c r="E268" s="78">
+        <v>3138</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G268" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H268" s="80">
+        <v>3035.5036789999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B269" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C269" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D269" s="78">
+        <v>169</v>
+      </c>
+      <c r="E269" s="78">
+        <v>161</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G269" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H269" s="80">
+        <v>191.25781499999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B270" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C270" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D270" s="78">
+        <v>237</v>
+      </c>
+      <c r="E270" s="78">
+        <v>225</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G270" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H270" s="80">
+        <v>504.087187999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C271" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D271" s="78">
+        <v>2224</v>
+      </c>
+      <c r="E271" s="78">
+        <v>2118</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G271" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H271" s="80">
+        <v>1984.78</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B272" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C272" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D272" s="78">
+        <v>1078</v>
+      </c>
+      <c r="E272" s="78">
+        <v>524</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G272" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H272" s="80">
+        <v>287.324625999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B273" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C273" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D273" s="78">
+        <v>897</v>
+      </c>
+      <c r="E273" s="78">
+        <v>842</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G273" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H273" s="80">
+        <v>298.75</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B274" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C274" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D274" s="78">
+        <v>1369</v>
+      </c>
+      <c r="E274" s="78">
+        <v>1304</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G274" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H274" s="80">
+        <v>1186.02</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B275" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C275" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D275" s="78">
+        <v>1041</v>
+      </c>
+      <c r="E275" s="78">
+        <v>992</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G275" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H275" s="80">
+        <v>853.11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B276" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D276" s="78">
+        <v>1458</v>
+      </c>
+      <c r="E276" s="78">
+        <v>1416</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G276" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H276" s="80">
+        <v>1117.05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B277" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C277" s="21">
+        <v>2011</v>
+      </c>
+      <c r="D277" s="78">
+        <v>687</v>
+      </c>
+      <c r="E277" s="78">
+        <v>641</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G277" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H277" s="80">
+        <v>514.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B278" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C278" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D278" s="83">
+        <v>7586</v>
+      </c>
+      <c r="E278" s="83">
+        <v>7226</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G278" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H278" s="85">
+        <v>2166.9299999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B279" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D279" s="83">
+        <v>3156</v>
+      </c>
+      <c r="E279" s="83">
+        <v>3006</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G279" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H279" s="85">
+        <v>1607.71</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B280" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D280" s="83">
+        <v>3800</v>
+      </c>
+      <c r="E280" s="83">
+        <v>3620</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G280" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H280" s="85">
+        <v>3028.89</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B281" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D281" s="83">
+        <v>8530</v>
+      </c>
+      <c r="E281" s="83">
+        <v>8088</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G281" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H281" s="85">
+        <v>5745.17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B282" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D282" s="83">
+        <v>71</v>
+      </c>
+      <c r="E282" s="83">
+        <v>69</v>
+      </c>
+      <c r="F282" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G282" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H282" s="85">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B283" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D283" s="83">
+        <v>44903</v>
+      </c>
+      <c r="E283" s="83">
+        <v>42768</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G283" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H283" s="85">
+        <v>8541.9699999999993</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B284" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D284" s="83">
+        <v>1265</v>
+      </c>
+      <c r="E284" s="83">
+        <v>1197</v>
+      </c>
+      <c r="F284" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G284" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H284" s="85">
+        <v>784.62</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B285" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C285" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D285" s="83">
+        <v>271</v>
+      </c>
+      <c r="E285" s="83">
+        <v>253</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G285" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H285" s="85">
+        <v>102.38</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B286" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C286" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D286" s="82"/>
+      <c r="E286" s="82"/>
+      <c r="F286" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G286" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H286" s="84"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B287" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C287" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D287" s="83">
+        <v>19800</v>
+      </c>
+      <c r="E287" s="83">
+        <v>18929</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G287" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H287" s="85">
+        <v>7531.95</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B288" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C288" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D288" s="82"/>
+      <c r="E288" s="82"/>
+      <c r="F288" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G288" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H288" s="84"/>
+    </row>
+    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B289" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C289" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D289" s="82"/>
+      <c r="E289" s="82"/>
+      <c r="F289" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G289" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H289" s="84"/>
+    </row>
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B290" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C290" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D290" s="82"/>
+      <c r="E290" s="82"/>
+      <c r="F290" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G290" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H290" s="84"/>
+    </row>
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B291" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C291" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D291" s="82"/>
+      <c r="E291" s="82"/>
+      <c r="F291" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G291" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H291" s="84"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B292" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C292" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D292" s="83">
+        <v>2832</v>
+      </c>
+      <c r="E292" s="83">
+        <v>2697</v>
+      </c>
+      <c r="F292" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G292" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H292" s="85">
+        <v>2344.69</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B293" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C293" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D293" s="83">
+        <v>169</v>
+      </c>
+      <c r="E293" s="83">
+        <v>161</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G293" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H293" s="85">
+        <v>162.62</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B294" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C294" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D294" s="83">
+        <v>237</v>
+      </c>
+      <c r="E294" s="83">
+        <v>225</v>
+      </c>
+      <c r="F294" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G294" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H294" s="85">
+        <v>534.91</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B295" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C295" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D295" s="83">
+        <v>2052</v>
+      </c>
+      <c r="E295" s="83">
+        <v>1955</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G295" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H295" s="85">
+        <v>1531.29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B296" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C296" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D296" s="83">
+        <v>238</v>
+      </c>
+      <c r="E296" s="83">
+        <v>231</v>
+      </c>
+      <c r="F296" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G296" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H296" s="85">
+        <v>193.51</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B297" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C297" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D297" s="83">
+        <v>644</v>
+      </c>
+      <c r="E297" s="83">
+        <v>605</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G297" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H297" s="85">
+        <v>370.14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B298" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C298" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D298" s="83">
+        <v>944</v>
+      </c>
+      <c r="E298" s="83">
+        <v>899</v>
+      </c>
+      <c r="F298" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G298" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H298" s="85">
+        <v>832.52</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B299" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C299" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D299" s="83">
+        <v>863</v>
+      </c>
+      <c r="E299" s="83">
+        <v>822</v>
+      </c>
+      <c r="F299" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G299" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H299" s="85">
+        <v>671.39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B300" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C300" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D300" s="83">
+        <v>1200</v>
+      </c>
+      <c r="E300" s="83">
+        <v>1021</v>
+      </c>
+      <c r="F300" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G300" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H300" s="85">
+        <v>809.67</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B301" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C301" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D301" s="83">
+        <v>493</v>
+      </c>
+      <c r="E301" s="83">
+        <v>470</v>
+      </c>
+      <c r="F301" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G301" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H301" s="85">
+        <v>314.73</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C302">
+        <v>2020</v>
+      </c>
+      <c r="D302" s="87">
+        <v>8351</v>
+      </c>
+      <c r="E302" s="87">
+        <v>8351</v>
+      </c>
+      <c r="F302" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G302" t="s">
+        <v>56</v>
+      </c>
+      <c r="H302" s="89">
+        <v>6905.83</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C303" s="88">
+        <v>2020</v>
+      </c>
+      <c r="D303" s="87">
+        <v>12316</v>
+      </c>
+      <c r="E303" s="87">
+        <v>12316</v>
+      </c>
+      <c r="F303" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G303" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H303" s="89">
+        <v>3811.4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C304">
+        <v>2019</v>
+      </c>
+      <c r="D304" s="92">
+        <v>7592</v>
+      </c>
+      <c r="E304" s="92">
+        <v>7592</v>
+      </c>
+      <c r="F304" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G304" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H304" s="93">
+        <v>7834.7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C305" s="90">
+        <v>2019</v>
+      </c>
+      <c r="D305" s="92">
+        <v>12316</v>
+      </c>
+      <c r="E305" s="92">
+        <v>12316</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G305" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H305" s="93">
+        <v>8840.17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C306">
+        <v>2018</v>
+      </c>
+      <c r="D306" s="95">
+        <v>7592</v>
+      </c>
+      <c r="E306" s="95">
+        <v>7592</v>
+      </c>
+      <c r="F306" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G306" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H306" s="96">
+        <v>8124.17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C307" s="97">
+        <v>2018</v>
+      </c>
+      <c r="D307" s="95">
+        <v>12316</v>
+      </c>
+      <c r="E307" s="95">
+        <v>12316</v>
+      </c>
+      <c r="F307" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G307" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H307" s="96">
+        <v>10152.030000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C308">
+        <v>2017</v>
+      </c>
+      <c r="D308" s="99">
+        <v>7592</v>
+      </c>
+      <c r="E308" s="99">
+        <v>7592</v>
+      </c>
+      <c r="F308" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G308" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H308" s="100">
+        <v>7521.32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C309" s="97">
+        <v>2017</v>
+      </c>
+      <c r="D309" s="99">
+        <v>12316</v>
+      </c>
+      <c r="E309" s="99">
+        <v>12316</v>
+      </c>
+      <c r="F309" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G309" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H309" s="100">
+        <v>9038.74</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C310">
+        <v>2016</v>
+      </c>
+      <c r="D310" s="102">
+        <v>7592</v>
+      </c>
+      <c r="E310" s="102">
+        <v>7592</v>
+      </c>
+      <c r="F310" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G310" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H310" s="103">
+        <v>6670.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C311">
+        <v>2016</v>
+      </c>
+      <c r="D311" s="102">
+        <v>12316</v>
+      </c>
+      <c r="E311" s="102">
+        <v>12316</v>
+      </c>
+      <c r="F311" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G311" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H311" s="103">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C312">
+        <v>2015</v>
+      </c>
+      <c r="D312" s="105">
+        <v>7592</v>
+      </c>
+      <c r="E312" s="105">
+        <v>7592</v>
+      </c>
+      <c r="F312" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G312" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H312" s="106">
+        <v>4787.01</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C313">
+        <v>2015</v>
+      </c>
+      <c r="D313" s="105">
+        <v>12316</v>
+      </c>
+      <c r="E313" s="105">
+        <v>12316</v>
+      </c>
+      <c r="F313" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G313" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H313" s="106">
+        <v>6653.34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="C314">
+        <v>2014</v>
+      </c>
+      <c r="D314" s="108">
+        <v>7592</v>
+      </c>
+      <c r="E314" s="108">
+        <v>7592</v>
+      </c>
+      <c r="F314" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G314" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H314" s="109">
+        <v>4096.99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="C315">
+        <v>2014</v>
+      </c>
+      <c r="D315" s="108">
+        <v>12316</v>
+      </c>
+      <c r="E315" s="108">
+        <v>12316</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G315" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H315" s="109">
+        <v>7063.65</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C316">
+        <v>2013</v>
+      </c>
+      <c r="D316" s="111">
+        <v>7592</v>
+      </c>
+      <c r="E316" s="111">
+        <v>7592</v>
+      </c>
+      <c r="F316" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G316" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H316" s="112">
+        <v>4373.3999999999996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C317">
+        <v>2013</v>
+      </c>
+      <c r="D317" s="111">
+        <v>12316</v>
+      </c>
+      <c r="E317" s="111">
+        <v>12316</v>
+      </c>
+      <c r="F317" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G317" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H317" s="112">
+        <v>7087.22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C318">
+        <v>2012</v>
+      </c>
+      <c r="D318" s="114">
+        <v>7592</v>
+      </c>
+      <c r="E318" s="114">
+        <v>7592</v>
+      </c>
+      <c r="F318" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G318" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H318" s="115">
+        <v>4565.04</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C319">
+        <v>2012</v>
+      </c>
+      <c r="D319" s="114">
+        <v>12316</v>
+      </c>
+      <c r="E319" s="114">
+        <v>12316</v>
+      </c>
+      <c r="F319" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G319" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H319" s="115">
+        <v>8070.81</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C320">
+        <v>2011</v>
+      </c>
+      <c r="D320" s="117">
+        <v>7592</v>
+      </c>
+      <c r="E320" s="117">
+        <v>7592</v>
+      </c>
+      <c r="F320" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G320" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H320" s="119">
+        <v>4266.04</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C321">
+        <v>2011</v>
+      </c>
+      <c r="D321" s="117">
+        <v>12316</v>
+      </c>
+      <c r="E321" s="117">
+        <v>12316</v>
+      </c>
+      <c r="F321" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G321" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H321" s="119">
+        <v>8537.2999999999993</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A322" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C322">
+        <v>2020</v>
+      </c>
+      <c r="D322" s="138">
+        <v>14126</v>
+      </c>
+      <c r="E322" s="138">
+        <v>14077</v>
+      </c>
+      <c r="F322" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G322" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H322" s="138">
+        <v>8697.73</v>
+      </c>
+      <c r="K322" s="121">
+        <v>14126</v>
+      </c>
+      <c r="L322" s="121">
+        <v>14077</v>
+      </c>
+      <c r="M322" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N322" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="O322" s="122">
+        <v>8697.73</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A323" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323">
+        <v>2019</v>
+      </c>
+      <c r="D323" s="138">
+        <v>12914</v>
+      </c>
+      <c r="E323" s="138">
+        <v>12865</v>
+      </c>
+      <c r="F323" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G323" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H323" s="138">
+        <v>11886.91</v>
+      </c>
+      <c r="K323" s="123">
+        <v>12914</v>
+      </c>
+      <c r="L323" s="123">
+        <v>12865</v>
+      </c>
+      <c r="M323" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N323" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="O323" s="124">
+        <v>11886.91</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A324" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C324">
+        <v>2018</v>
+      </c>
+      <c r="D324" s="137">
+        <f t="shared" ref="D323:E329" si="5">(K324*1000000)/2205</f>
+        <v>22630.385487528343</v>
+      </c>
+      <c r="E324" s="137">
+        <f t="shared" si="5"/>
+        <v>22566.89342403628</v>
+      </c>
+      <c r="F324" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G324" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H324" s="137">
+        <f t="shared" ref="F322:H329" si="6">(O324*1000000)/2205</f>
+        <v>11569.160997732426</v>
+      </c>
+      <c r="K324" s="126">
+        <v>49.9</v>
+      </c>
+      <c r="L324" s="126">
+        <v>49.76</v>
+      </c>
+      <c r="M324" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N324" t="s">
+        <v>59</v>
+      </c>
+      <c r="O324" s="127">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A325" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C325">
+        <v>2017</v>
+      </c>
+      <c r="D325" s="137">
+        <f t="shared" si="5"/>
+        <v>23038.548752834467</v>
+      </c>
+      <c r="E325" s="137">
+        <f t="shared" si="5"/>
+        <v>22975.056689342404</v>
+      </c>
+      <c r="F325" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G325" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H325" s="137">
+        <f t="shared" si="6"/>
+        <v>10480.725623582766</v>
+      </c>
+      <c r="K325" s="128">
+        <v>50.8</v>
+      </c>
+      <c r="L325" s="128">
+        <v>50.66</v>
+      </c>
+      <c r="M325" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N325" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O325" s="129">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A326" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B326" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C326">
+        <v>2016</v>
+      </c>
+      <c r="D326" s="137">
+        <f t="shared" si="5"/>
+        <v>23038.548752834467</v>
+      </c>
+      <c r="E326" s="137">
+        <f t="shared" si="5"/>
+        <v>22975.056689342404</v>
+      </c>
+      <c r="F326" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G326" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H326" s="137">
+        <f t="shared" si="6"/>
+        <v>20022.67573696145</v>
+      </c>
+      <c r="K326" s="130">
+        <v>50.8</v>
+      </c>
+      <c r="L326" s="130">
+        <v>50.66</v>
+      </c>
+      <c r="M326" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N326" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O326" s="131">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A327" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C327">
+        <v>2015</v>
+      </c>
+      <c r="D327" s="137">
+        <f t="shared" si="5"/>
+        <v>28305.215419501135</v>
+      </c>
+      <c r="E327" s="137">
+        <f t="shared" si="5"/>
+        <v>28240.362811791383</v>
+      </c>
+      <c r="F327" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G327" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H327" s="137">
+        <f t="shared" si="6"/>
+        <v>14244.897959183674</v>
+      </c>
+      <c r="K327" s="132">
+        <v>62.412999999999997</v>
+      </c>
+      <c r="L327" s="132">
+        <v>62.27</v>
+      </c>
+      <c r="M327" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N327" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O327" s="133">
+        <v>31.41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A328" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328">
+        <v>2014</v>
+      </c>
+      <c r="D328" s="137">
+        <f t="shared" si="5"/>
+        <v>27591.836734693876</v>
+      </c>
+      <c r="E328" s="137">
+        <f t="shared" si="5"/>
+        <v>27528.344671201816</v>
+      </c>
+      <c r="F328" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G328" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H328" s="137">
+        <f t="shared" si="6"/>
+        <v>15605.442176870749</v>
+      </c>
+      <c r="K328" s="134">
+        <v>60.84</v>
+      </c>
+      <c r="L328" s="134">
+        <v>60.7</v>
+      </c>
+      <c r="M328" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N328" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O328" s="135">
+        <v>34.409999999999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A329" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B329" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>2013</v>
+      </c>
+      <c r="D329" s="137">
+        <f t="shared" si="5"/>
+        <v>27591.836734693876</v>
+      </c>
+      <c r="E329" s="137">
+        <f t="shared" si="5"/>
+        <v>27528.344671201816</v>
+      </c>
+      <c r="F329" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G329" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H329" s="137">
+        <f t="shared" si="6"/>
+        <v>12925.170068027212</v>
+      </c>
+      <c r="K329" s="136">
+        <v>60.84</v>
+      </c>
+      <c r="L329" s="136">
+        <v>60.7</v>
+      </c>
+      <c r="M329" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N329" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O329" s="138">
+        <v>28.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/NEFMC_abc_acl.xlsx
+++ b/data-raw/NEFMC_abc_acl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="97">
   <si>
     <t>Time</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Initial Value in million lb converted using =(Value*1000000)/2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Skates (Wings)*</t>
+  </si>
+  <si>
+    <t>Skate*</t>
   </si>
 </sst>
 </file>
@@ -1698,8 +1707,8 @@
   <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A252" sqref="A252:F261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8198,10 +8207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330:D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16771,7 +16780,7 @@
         <v>2018</v>
       </c>
       <c r="D324" s="137">
-        <f t="shared" ref="D323:E329" si="5">(K324*1000000)/2205</f>
+        <f t="shared" ref="D324:E329" si="5">(K324*1000000)/2205</f>
         <v>22630.385487528343</v>
       </c>
       <c r="E324" s="137">
@@ -16785,7 +16794,7 @@
         <v>56</v>
       </c>
       <c r="H324" s="137">
-        <f t="shared" ref="F322:H329" si="6">(O324*1000000)/2205</f>
+        <f t="shared" ref="H324:H329" si="6">(O324*1000000)/2205</f>
         <v>11569.160997732426</v>
       </c>
       <c r="K324" s="126">
@@ -17022,6 +17031,272 @@
       </c>
       <c r="O329" s="138">
         <v>28.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A330" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C330" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E330" s="12">
+        <v>2947</v>
+      </c>
+      <c r="F330" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G330" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H330" s="12">
+        <v>14059.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A331" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C331" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D331" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E331" s="12">
+        <v>4793</v>
+      </c>
+      <c r="F331" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G331" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H331" s="12">
+        <v>11879</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A332" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C332" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E332" s="12">
+        <v>9158</v>
+      </c>
+      <c r="F332" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G332" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H332" s="12">
+        <v>11879</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A333" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C333" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D333" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E333" s="12">
+        <v>8494.7999999999993</v>
+      </c>
+      <c r="F333" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G333" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H333" s="12">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A334" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C334" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D334" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E334" s="12">
+        <v>9223.5</v>
+      </c>
+      <c r="F334" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G334" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H334" s="12">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A335" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C335" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D335" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E335" s="12">
+        <v>8426.4</v>
+      </c>
+      <c r="F335" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G335" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H335" s="12">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A336" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C336" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D336" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E336" s="12">
+        <v>8190.7</v>
+      </c>
+      <c r="F336" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G336" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H336" s="12">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C337" s="12">
+        <v>2015</v>
+      </c>
+      <c r="D337" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E337" s="12">
+        <v>8647.9</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G337" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H337" s="12">
+        <v>10896.2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C338" s="12">
+        <v>2014</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E338" s="12">
+        <v>10232.299999999999</v>
+      </c>
+      <c r="F338" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G338" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H338" s="12">
+        <v>10896.2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C339" s="12">
+        <v>2013</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E339" s="12">
+        <v>7988.4</v>
+      </c>
+      <c r="F339" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G339" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H339" s="12">
+        <v>14338</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" s="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
